--- a/src/test/resources/excel/BuildigsList_1.xlsx
+++ b/src/test/resources/excel/BuildigsList_1.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18551" windowHeight="9455"/>
+    <workbookView windowWidth="18468" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$584</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="572">
   <si>
     <t>Slno</t>
   </si>
@@ -31,6 +34,9 @@
     <t>Data</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>16-17, DOUGLAS COURT SHOPPING CENTRE</t>
   </si>
   <si>
@@ -1601,6 +1607,9 @@
   </si>
   <si>
     <t>64 HIGH STREET</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>TESCO EXTRA, DURHAM ROAD</t>
@@ -1731,10 +1740,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1758,8 +1767,130 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1775,128 +1906,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1923,7 +1932,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,7 +1998,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,25 +2070,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,133 +2112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,11 +2156,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2159,8 +2166,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,6 +2198,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2210,35 +2241,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2247,148 +2256,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2396,22 +2405,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2421,12 +2434,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -2734,7 +2747,7 @@
   <dimension ref="A1:E584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B586" sqref="B586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -2764,11 +2777,11 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2779,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2790,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2801,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2812,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2823,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2834,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2845,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2856,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2867,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2878,7 +2891,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2889,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2900,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2911,7 +2924,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2922,7 +2935,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2933,7 +2946,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2944,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2955,7 +2968,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2966,7 +2979,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2977,7 +2990,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2988,7 +3001,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -2999,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3010,7 +3023,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -3021,7 +3034,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -3032,7 +3045,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3043,7 +3056,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -3054,7 +3067,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3065,7 +3078,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3076,7 +3089,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3087,7 +3100,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -3098,7 +3111,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -3109,7 +3122,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3120,7 +3133,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -3131,7 +3144,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3142,7 +3155,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3153,7 +3166,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3164,7 +3177,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3175,7 +3188,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3186,7 +3199,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3197,7 +3210,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3208,7 +3221,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3219,7 +3232,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3230,7 +3243,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3241,7 +3254,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3252,7 +3265,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3263,7 +3276,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3274,7 +3287,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3285,7 +3298,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -3296,7 +3309,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -3307,7 +3320,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -3318,7 +3331,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -3329,7 +3342,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -3340,7 +3353,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -3351,7 +3364,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -3362,7 +3375,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -3373,7 +3386,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -3384,7 +3397,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -3395,7 +3408,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3406,7 +3419,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -3417,7 +3430,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -3428,7 +3441,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3439,7 +3452,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -3450,7 +3463,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -3461,7 +3474,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -3472,7 +3485,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -3483,7 +3496,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -3494,7 +3507,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -3505,7 +3518,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -3516,7 +3529,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -3527,7 +3540,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3538,7 +3551,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -3549,7 +3562,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3560,7 +3573,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -3571,7 +3584,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -3582,7 +3595,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -3593,7 +3606,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -3604,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -3615,7 +3628,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3626,7 +3639,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3637,7 +3650,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3648,7 +3661,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3659,7 +3672,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -3670,7 +3683,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -3681,7 +3694,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -3692,7 +3705,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -3703,7 +3716,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3714,7 +3727,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3725,7 +3738,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3736,7 +3749,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3747,7 +3760,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3758,7 +3771,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3769,7 +3782,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3780,7 +3793,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3791,7 +3804,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3802,7 +3815,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -3813,7 +3826,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -3824,7 +3837,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3835,7 +3848,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3846,7 +3859,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3857,7 +3870,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3868,7 +3881,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3879,7 +3892,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3890,7 +3903,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3901,7 +3914,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3912,7 +3925,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3923,7 +3936,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3934,7 +3947,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3945,7 +3958,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3956,7 +3969,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3967,7 +3980,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3978,7 +3991,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3989,7 +4002,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -4000,7 +4013,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -4011,7 +4024,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -4022,7 +4035,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -4033,7 +4046,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -4044,7 +4057,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -4055,7 +4068,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -4066,7 +4079,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -4077,7 +4090,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -4088,7 +4101,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -4099,7 +4112,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -4110,7 +4123,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -4121,7 +4134,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -4132,7 +4145,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -4143,7 +4156,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -4154,7 +4167,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4165,7 +4178,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -4176,7 +4189,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -4187,7 +4200,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -4198,7 +4211,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -4209,7 +4222,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4220,7 +4233,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -4231,7 +4244,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -4242,7 +4255,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -4253,7 +4266,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -4264,7 +4277,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -4275,7 +4288,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -4286,7 +4299,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -4297,7 +4310,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -4308,7 +4321,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -4319,7 +4332,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -4330,7 +4343,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -4341,7 +4354,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -4352,7 +4365,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -4363,7 +4376,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -4374,7 +4387,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -4385,7 +4398,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -4396,7 +4409,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -4407,7 +4420,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -4418,7 +4431,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -4429,7 +4442,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -4440,7 +4453,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -4451,7 +4464,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -4462,7 +4475,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -4473,7 +4486,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -4484,7 +4497,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -4495,7 +4508,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -4506,7 +4519,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -4517,7 +4530,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -4528,7 +4541,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -4539,7 +4552,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -4550,7 +4563,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -4561,7 +4574,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -4572,7 +4585,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -4583,7 +4596,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -4594,7 +4607,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -4605,7 +4618,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -4616,7 +4629,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -4627,7 +4640,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4638,7 +4651,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -4649,7 +4662,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -4660,7 +4673,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -4671,7 +4684,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -4682,7 +4695,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -4693,7 +4706,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4704,7 +4717,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -4715,7 +4728,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4726,7 +4739,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -4737,7 +4750,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -4748,7 +4761,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -4759,7 +4772,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4770,7 +4783,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -4781,7 +4794,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -4792,7 +4805,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -4803,7 +4816,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4814,7 +4827,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -4825,7 +4838,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4836,7 +4849,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -4847,7 +4860,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -4858,7 +4871,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -4869,7 +4882,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -4880,7 +4893,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -4891,7 +4904,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4902,7 +4915,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -4913,7 +4926,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -4924,7 +4937,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -4935,7 +4948,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4946,7 +4959,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -4957,7 +4970,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -4968,7 +4981,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -4979,7 +4992,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -4990,7 +5003,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -5001,7 +5014,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -5012,7 +5025,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -5023,7 +5036,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -5034,7 +5047,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -5045,7 +5058,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -5056,7 +5069,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -5067,7 +5080,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -5078,7 +5091,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -5089,7 +5102,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -5100,7 +5113,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -5111,7 +5124,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -5122,7 +5135,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -5133,7 +5146,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -5144,7 +5157,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -5155,7 +5168,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -5166,7 +5179,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -5177,7 +5190,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -5188,7 +5201,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -5199,7 +5212,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -5210,7 +5223,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -5221,7 +5234,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -5232,7 +5245,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -5243,7 +5256,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -5254,7 +5267,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -5265,7 +5278,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -5276,7 +5289,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -5287,7 +5300,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -5298,7 +5311,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -5309,7 +5322,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -5320,7 +5333,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -5331,7 +5344,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -5342,7 +5355,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -5353,7 +5366,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -5364,7 +5377,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -5375,7 +5388,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -5386,7 +5399,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -5397,7 +5410,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -5408,7 +5421,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -5419,7 +5432,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -5430,7 +5443,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -5441,7 +5454,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -5452,7 +5465,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -5463,7 +5476,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -5474,7 +5487,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -5485,7 +5498,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -5496,7 +5509,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -5507,7 +5520,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -5518,7 +5531,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -5529,7 +5542,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -5540,7 +5553,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -5551,7 +5564,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -5562,7 +5575,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -5573,7 +5586,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -5584,7 +5597,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -5595,7 +5608,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -5606,7 +5619,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -5617,7 +5630,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -5628,7 +5641,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -5639,7 +5652,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -5650,7 +5663,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -5661,7 +5674,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -5672,7 +5685,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -5683,7 +5696,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -5694,7 +5707,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -5705,7 +5718,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -5716,7 +5729,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -5727,7 +5740,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -5738,7 +5751,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -5749,7 +5762,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -5760,7 +5773,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -5771,7 +5784,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -5782,7 +5795,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -5793,7 +5806,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -5804,7 +5817,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -5815,7 +5828,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -5826,7 +5839,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -5837,7 +5850,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -5848,7 +5861,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -5859,7 +5872,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -5870,7 +5883,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -5881,7 +5894,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -5892,7 +5905,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -5903,7 +5916,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -5914,7 +5927,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -5925,7 +5938,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -5936,7 +5949,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -5947,7 +5960,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -5958,7 +5971,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -5969,7 +5982,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -5980,7 +5993,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -5991,7 +6004,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -6002,7 +6015,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -6013,7 +6026,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -6024,7 +6037,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -6035,7 +6048,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -6046,7 +6059,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -6057,7 +6070,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -6068,7 +6081,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -6079,7 +6092,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -6090,7 +6103,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -6101,7 +6114,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -6112,7 +6125,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -6123,7 +6136,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -6134,7 +6147,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -6145,7 +6158,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -6156,7 +6169,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -6167,7 +6180,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -6178,7 +6191,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -6189,7 +6202,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -6200,7 +6213,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -6211,7 +6224,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -6222,7 +6235,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -6233,7 +6246,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -6244,7 +6257,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -6255,7 +6268,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -6266,7 +6279,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -6277,7 +6290,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -6288,7 +6301,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -6299,7 +6312,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -6310,7 +6323,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -6321,7 +6334,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -6332,7 +6345,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -6343,7 +6356,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -6354,7 +6367,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -6365,7 +6378,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -6376,7 +6389,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -6387,7 +6400,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -6398,7 +6411,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -6409,7 +6422,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -6420,7 +6433,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -6431,7 +6444,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -6442,7 +6455,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -6453,7 +6466,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -6464,7 +6477,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -6475,7 +6488,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -6486,7 +6499,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -6497,7 +6510,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -6508,7 +6521,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -6519,7 +6532,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -6530,7 +6543,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -6541,7 +6554,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -6552,7 +6565,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -6563,7 +6576,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -6574,7 +6587,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -6585,7 +6598,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -6596,7 +6609,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -6607,7 +6620,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -6618,7 +6631,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -6629,7 +6642,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -6640,7 +6653,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -6651,7 +6664,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -6662,7 +6675,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -6673,7 +6686,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -6684,7 +6697,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -6695,7 +6708,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -6706,7 +6719,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -6717,7 +6730,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -6728,7 +6741,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -6739,7 +6752,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -6750,7 +6763,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -6761,7 +6774,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -6772,7 +6785,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -6783,7 +6796,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -6794,7 +6807,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -6805,7 +6818,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -6816,7 +6829,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -6827,7 +6840,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -6838,7 +6851,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -6849,7 +6862,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -6860,7 +6873,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -6871,7 +6884,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -6882,7 +6895,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -6893,7 +6906,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -6904,7 +6917,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -6915,7 +6928,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -6926,7 +6939,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -6937,7 +6950,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -6948,7 +6961,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -6959,7 +6972,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -6970,7 +6983,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -6981,7 +6994,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -6992,7 +7005,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -7003,7 +7016,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -7014,7 +7027,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -7025,7 +7038,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -7036,7 +7049,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -7047,7 +7060,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -7058,7 +7071,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -7069,7 +7082,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -7080,7 +7093,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -7091,7 +7104,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -7102,7 +7115,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -7113,7 +7126,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
@@ -7124,7 +7137,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -7135,7 +7148,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -7146,7 +7159,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
@@ -7157,7 +7170,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
@@ -7168,7 +7181,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
@@ -7179,7 +7192,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -7190,7 +7203,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
@@ -7201,7 +7214,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
@@ -7212,7 +7225,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C406" s="6"/>
       <c r="D406" s="6"/>
@@ -7223,7 +7236,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
@@ -7234,7 +7247,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
@@ -7245,7 +7258,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
@@ -7256,7 +7269,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -7267,7 +7280,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
@@ -7278,7 +7291,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C412" s="6"/>
       <c r="D412" s="6"/>
@@ -7289,7 +7302,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
@@ -7300,7 +7313,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
@@ -7311,7 +7324,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C415" s="6"/>
       <c r="D415" s="6"/>
@@ -7322,7 +7335,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
@@ -7333,7 +7346,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -7344,7 +7357,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
@@ -7355,7 +7368,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
@@ -7366,7 +7379,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -7377,7 +7390,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
@@ -7388,7 +7401,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
@@ -7399,7 +7412,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
@@ -7410,7 +7423,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -7421,7 +7434,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
@@ -7432,7 +7445,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
@@ -7443,7 +7456,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
@@ -7454,7 +7467,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
@@ -7465,7 +7478,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
@@ -7476,7 +7489,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
@@ -7487,7 +7500,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
@@ -7498,7 +7511,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
@@ -7509,7 +7522,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
@@ -7520,7 +7533,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
@@ -7531,7 +7544,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
@@ -7542,7 +7555,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
@@ -7553,7 +7566,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
@@ -7564,7 +7577,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
@@ -7575,7 +7588,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
@@ -7586,7 +7599,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
@@ -7597,7 +7610,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
@@ -7608,7 +7621,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
@@ -7619,7 +7632,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
@@ -7630,7 +7643,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
@@ -7641,7 +7654,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
@@ -7652,7 +7665,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
@@ -7663,7 +7676,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
@@ -7674,7 +7687,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -7685,7 +7698,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
@@ -7696,7 +7709,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
@@ -7707,7 +7720,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
@@ -7718,7 +7731,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
@@ -7729,7 +7742,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
@@ -7740,7 +7753,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -7751,7 +7764,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
@@ -7762,7 +7775,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
@@ -7773,7 +7786,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
@@ -7784,7 +7797,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -7795,7 +7808,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
@@ -7806,7 +7819,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
@@ -7817,7 +7830,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
@@ -7828,7 +7841,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
@@ -7839,7 +7852,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
@@ -7850,7 +7863,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -7861,7 +7874,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C465" s="6"/>
       <c r="D465" s="6"/>
@@ -7872,7 +7885,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C466" s="6"/>
       <c r="D466" s="6"/>
@@ -7883,7 +7896,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C467" s="6"/>
       <c r="D467" s="6"/>
@@ -7894,7 +7907,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C468" s="6"/>
       <c r="D468" s="6"/>
@@ -7905,7 +7918,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C469" s="6"/>
       <c r="D469" s="6"/>
@@ -7916,7 +7929,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
@@ -7927,7 +7940,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -7938,7 +7951,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C472" s="6"/>
       <c r="D472" s="6"/>
@@ -7949,7 +7962,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C473" s="6"/>
       <c r="D473" s="6"/>
@@ -7960,7 +7973,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C474" s="6"/>
       <c r="D474" s="6"/>
@@ -7971,7 +7984,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
@@ -7982,7 +7995,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -7993,7 +8006,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C477" s="6"/>
       <c r="D477" s="6"/>
@@ -8004,7 +8017,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
@@ -8015,7 +8028,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C479" s="6"/>
       <c r="D479" s="6"/>
@@ -8026,7 +8039,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C480" s="6"/>
       <c r="D480" s="6"/>
@@ -8037,7 +8050,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
@@ -8048,7 +8061,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C482" s="6"/>
       <c r="D482" s="6"/>
@@ -8059,7 +8072,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C483" s="6"/>
       <c r="D483" s="6"/>
@@ -8070,7 +8083,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
@@ -8081,7 +8094,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C485" s="6"/>
       <c r="D485" s="6"/>
@@ -8092,7 +8105,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -8103,7 +8116,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
@@ -8114,7 +8127,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C488" s="6"/>
       <c r="D488" s="6"/>
@@ -8125,7 +8138,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C489" s="6"/>
       <c r="D489" s="6"/>
@@ -8136,7 +8149,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C490" s="6"/>
       <c r="D490" s="6"/>
@@ -8147,7 +8160,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C491" s="6"/>
       <c r="D491" s="6"/>
@@ -8158,7 +8171,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
@@ -8169,7 +8182,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
@@ -8180,7 +8193,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C494" s="6"/>
       <c r="D494" s="6"/>
@@ -8191,7 +8204,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C495" s="6"/>
       <c r="D495" s="6"/>
@@ -8202,7 +8215,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C496" s="6"/>
       <c r="D496" s="6"/>
@@ -8213,7 +8226,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C497" s="6"/>
       <c r="D497" s="6"/>
@@ -8224,7 +8237,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -8235,7 +8248,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
@@ -8246,7 +8259,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C500" s="6"/>
       <c r="D500" s="6"/>
@@ -8257,7 +8270,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C501" s="6"/>
       <c r="D501" s="6"/>
@@ -8268,7 +8281,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C502" s="6"/>
       <c r="D502" s="6"/>
@@ -8279,7 +8292,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C503" s="6"/>
       <c r="D503" s="6"/>
@@ -8290,7 +8303,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -8301,7 +8314,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C505" s="6"/>
       <c r="D505" s="6"/>
@@ -8312,7 +8325,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C506" s="6"/>
       <c r="D506" s="6"/>
@@ -8323,7 +8336,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C507" s="6"/>
       <c r="D507" s="6"/>
@@ -8334,7 +8347,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C508" s="6"/>
       <c r="D508" s="6"/>
@@ -8345,7 +8358,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C509" s="6"/>
       <c r="D509" s="6"/>
@@ -8356,7 +8369,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
@@ -8367,7 +8380,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C511" s="6"/>
       <c r="D511" s="6"/>
@@ -8378,7 +8391,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C512" s="6"/>
       <c r="D512" s="6"/>
@@ -8389,7 +8402,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C513" s="6"/>
       <c r="D513" s="6"/>
@@ -8400,7 +8413,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C514" s="6"/>
       <c r="D514" s="6"/>
@@ -8411,7 +8424,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C515" s="6"/>
       <c r="D515" s="6"/>
@@ -8422,7 +8435,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C516" s="6"/>
       <c r="D516" s="6"/>
@@ -8433,7 +8446,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C517" s="6"/>
       <c r="D517" s="6"/>
@@ -8444,7 +8457,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C518" s="6"/>
       <c r="D518" s="6"/>
@@ -8455,7 +8468,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C519" s="6"/>
       <c r="D519" s="6"/>
@@ -8466,7 +8479,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C520" s="6"/>
       <c r="D520" s="6"/>
@@ -8477,7 +8490,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C521" s="6"/>
       <c r="D521" s="6"/>
@@ -8488,7 +8501,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C522" s="6"/>
       <c r="D522" s="6"/>
@@ -8499,7 +8512,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C523" s="6"/>
       <c r="D523" s="6"/>
@@ -8510,7 +8523,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C524" s="6"/>
       <c r="D524" s="6"/>
@@ -8521,7 +8534,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C525" s="6"/>
       <c r="D525" s="6"/>
@@ -8532,7 +8545,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C526" s="6"/>
       <c r="D526" s="6"/>
@@ -8543,7 +8556,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C527" s="6"/>
       <c r="D527" s="6"/>
@@ -8554,7 +8567,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C528" s="6"/>
       <c r="D528" s="6"/>
@@ -8565,7 +8578,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C529" s="6"/>
       <c r="D529" s="6"/>
@@ -8576,7 +8589,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C530" s="6"/>
       <c r="D530" s="6"/>
@@ -8587,7 +8600,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C531" s="6"/>
       <c r="D531" s="6"/>
@@ -8598,7 +8611,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C532" s="6"/>
       <c r="D532" s="6"/>
@@ -8609,7 +8622,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C533" s="6"/>
       <c r="D533" s="6"/>
@@ -8620,7 +8633,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C534" s="6"/>
       <c r="D534" s="6"/>
@@ -8631,7 +8644,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C535" s="6"/>
       <c r="D535" s="6"/>
@@ -8642,7 +8655,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C536" s="6"/>
       <c r="D536" s="6"/>
@@ -8653,7 +8666,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C537" s="6"/>
       <c r="D537" s="6"/>
@@ -8664,7 +8677,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C538" s="6"/>
       <c r="D538" s="6"/>
@@ -8674,8 +8687,8 @@
       <c r="A539" s="4">
         <v>538</v>
       </c>
-      <c r="B539" s="5">
-        <v>29</v>
+      <c r="B539" s="8" t="s">
+        <v>530</v>
       </c>
       <c r="C539" s="6"/>
       <c r="D539" s="6"/>
@@ -8686,7 +8699,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C540" s="6"/>
       <c r="D540" s="6"/>
@@ -8697,7 +8710,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C541" s="6"/>
       <c r="D541" s="6"/>
@@ -8708,7 +8721,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C542" s="6"/>
       <c r="D542" s="6"/>
@@ -8719,7 +8732,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C543" s="6"/>
       <c r="D543" s="6"/>
@@ -8730,7 +8743,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C544" s="6"/>
       <c r="D544" s="6"/>
@@ -8741,7 +8754,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C545" s="6"/>
       <c r="D545" s="6"/>
@@ -8752,7 +8765,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C546" s="6"/>
       <c r="D546" s="6"/>
@@ -8763,7 +8776,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C547" s="6"/>
       <c r="D547" s="6"/>
@@ -8774,7 +8787,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C548" s="6"/>
       <c r="D548" s="6"/>
@@ -8785,7 +8798,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C549" s="6"/>
       <c r="D549" s="6"/>
@@ -8796,7 +8809,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C550" s="6"/>
       <c r="D550" s="6"/>
@@ -8807,7 +8820,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C551" s="6"/>
       <c r="D551" s="6"/>
@@ -8818,7 +8831,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C552" s="6"/>
       <c r="D552" s="6"/>
@@ -8829,7 +8842,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C553" s="6"/>
       <c r="D553" s="6"/>
@@ -8840,7 +8853,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C554" s="6"/>
       <c r="D554" s="6"/>
@@ -8851,7 +8864,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C555" s="6"/>
       <c r="D555" s="6"/>
@@ -8862,7 +8875,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C556" s="6"/>
       <c r="D556" s="6"/>
@@ -8873,7 +8886,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C557" s="6"/>
       <c r="D557" s="6"/>
@@ -8884,7 +8897,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C558" s="6"/>
       <c r="D558" s="6"/>
@@ -8895,7 +8908,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C559" s="6"/>
       <c r="D559" s="6"/>
@@ -8906,7 +8919,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C560" s="6"/>
       <c r="D560" s="6"/>
@@ -8917,7 +8930,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C561" s="6"/>
       <c r="D561" s="6"/>
@@ -8928,7 +8941,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C562" s="6"/>
       <c r="D562" s="6"/>
@@ -8939,7 +8952,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C563" s="6"/>
       <c r="D563" s="6"/>
@@ -8950,7 +8963,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C564" s="6"/>
       <c r="D564" s="6"/>
@@ -8961,7 +8974,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C565" s="6"/>
       <c r="D565" s="6"/>
@@ -8972,7 +8985,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C566" s="6"/>
       <c r="D566" s="6"/>
@@ -8983,7 +8996,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C567" s="6"/>
       <c r="D567" s="6"/>
@@ -8994,7 +9007,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C568" s="6"/>
       <c r="D568" s="6"/>
@@ -9005,7 +9018,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C569" s="6"/>
       <c r="D569" s="6"/>
@@ -9016,7 +9029,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C570" s="6"/>
       <c r="D570" s="6"/>
@@ -9027,7 +9040,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C571" s="6"/>
       <c r="D571" s="6"/>
@@ -9038,7 +9051,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C572" s="6"/>
       <c r="D572" s="6"/>
@@ -9049,7 +9062,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C573" s="6"/>
       <c r="D573" s="6"/>
@@ -9060,7 +9073,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C574" s="6"/>
       <c r="D574" s="6"/>
@@ -9071,7 +9084,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C575" s="6"/>
       <c r="D575" s="6"/>
@@ -9082,7 +9095,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C576" s="6"/>
       <c r="D576" s="6"/>
@@ -9093,7 +9106,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -9104,7 +9117,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C578" s="6"/>
       <c r="D578" s="6"/>
@@ -9115,7 +9128,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
@@ -9126,7 +9139,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C580" s="6"/>
       <c r="D580" s="6"/>
@@ -9137,7 +9150,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -9148,7 +9161,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C582" s="6"/>
       <c r="D582" s="6"/>
@@ -9159,7 +9172,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -9170,7 +9183,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C584" s="6"/>
       <c r="D584" s="6"/>

--- a/src/test/resources/excel/BuildigsList_1.xlsx
+++ b/src/test/resources/excel/BuildigsList_1.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="40" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$584</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$E$584</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -1748,9 +1749,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1775,17 +1776,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1793,28 +1785,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,6 +1814,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1866,6 +1844,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1882,10 +1867,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1906,6 +1892,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,7 +1941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,7 +1953,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1964,85 +2037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,6 +2061,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2072,7 +2079,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,43 +2121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,15 +2163,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2182,26 +2174,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2226,6 +2198,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2259,15 +2240,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2276,140 +2274,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2444,10 +2445,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2776,16 +2774,16 @@
   <dimension ref="A1:E584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.1" style="12" customWidth="1"/>
-    <col min="2" max="2" width="46.8" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.7" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="12"/>
+    <col min="1" max="1" width="5.1" style="8" customWidth="1"/>
+    <col min="2" max="2" width="46.8" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.7" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.8" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2806,15 +2804,15 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
@@ -2823,9 +2821,9 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
@@ -2834,9 +2832,9 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
@@ -2845,9 +2843,9 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
@@ -2856,9 +2854,9 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4">
@@ -2867,9 +2865,9 @@
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4">
@@ -2878,9 +2876,9 @@
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4">
@@ -2889,9 +2887,9 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4">
@@ -2900,9 +2898,9 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4">
@@ -2911,9 +2909,9 @@
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4">
@@ -2922,9 +2920,9 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4">
@@ -2933,9 +2931,9 @@
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4">
@@ -2944,9 +2942,9 @@
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4">
@@ -2955,9 +2953,9 @@
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4">
@@ -2966,9 +2964,9 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4">
@@ -2977,9 +2975,9 @@
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
@@ -2988,9 +2986,9 @@
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4">
@@ -2999,9 +2997,9 @@
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4">
@@ -3010,9 +3008,9 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4">
@@ -3021,9 +3019,9 @@
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
@@ -3032,9 +3030,9 @@
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4">
@@ -3043,9 +3041,9 @@
       <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
@@ -3054,9 +3052,9 @@
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4">
@@ -3065,9 +3063,9 @@
       <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4">
@@ -3076,9 +3074,9 @@
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4">
@@ -3087,9 +3085,9 @@
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
@@ -3098,9 +3096,9 @@
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
@@ -3109,9 +3107,9 @@
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4">
@@ -3120,9 +3118,9 @@
       <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4">
@@ -3131,9 +3129,9 @@
       <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4">
@@ -3142,9 +3140,9 @@
       <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4">
@@ -3153,9 +3151,9 @@
       <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4">
@@ -3164,9 +3162,9 @@
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4">
@@ -3175,9 +3173,9 @@
       <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4">
@@ -3186,9 +3184,9 @@
       <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4">
@@ -3197,9 +3195,9 @@
       <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4">
@@ -3208,9 +3206,9 @@
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
@@ -3219,9 +3217,9 @@
       <c r="B39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
@@ -3230,9 +3228,9 @@
       <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
@@ -3241,9 +3239,9 @@
       <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
@@ -3252,9 +3250,9 @@
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
@@ -3263,9 +3261,9 @@
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
@@ -3274,9 +3272,9 @@
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
@@ -3285,9 +3283,9 @@
       <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
@@ -3296,9 +3294,9 @@
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
@@ -3307,9 +3305,9 @@
       <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
@@ -3318,9 +3316,9 @@
       <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4">
@@ -3329,9 +3327,9 @@
       <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4">
@@ -3340,9 +3338,9 @@
       <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4">
@@ -3351,9 +3349,9 @@
       <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4">
@@ -3362,9 +3360,9 @@
       <c r="B52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
@@ -3373,9 +3371,9 @@
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
@@ -3384,9 +3382,9 @@
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
@@ -3395,9 +3393,9 @@
       <c r="B55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
@@ -3406,9 +3404,9 @@
       <c r="B56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
@@ -3417,9 +3415,9 @@
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
@@ -3428,9 +3426,9 @@
       <c r="B58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
@@ -3439,9 +3437,9 @@
       <c r="B59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
@@ -3450,9 +3448,9 @@
       <c r="B60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4">
@@ -3461,9 +3459,9 @@
       <c r="B61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4">
@@ -3472,9 +3470,9 @@
       <c r="B62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4">
@@ -3483,9 +3481,9 @@
       <c r="B63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
@@ -3494,9 +3492,9 @@
       <c r="B64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
@@ -3505,9 +3503,9 @@
       <c r="B65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
@@ -3516,9 +3514,9 @@
       <c r="B66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
@@ -3527,9 +3525,9 @@
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
@@ -3538,9 +3536,9 @@
       <c r="B68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
@@ -3549,9 +3547,9 @@
       <c r="B69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
@@ -3560,9 +3558,9 @@
       <c r="B70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
@@ -3571,9 +3569,9 @@
       <c r="B71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4">
@@ -3582,9 +3580,9 @@
       <c r="B72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4">
@@ -3593,9 +3591,9 @@
       <c r="B73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
@@ -3604,9 +3602,9 @@
       <c r="B74" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
@@ -3615,9 +3613,9 @@
       <c r="B75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
@@ -3626,9 +3624,9 @@
       <c r="B76" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
@@ -3637,9 +3635,9 @@
       <c r="B77" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
@@ -3648,9 +3646,9 @@
       <c r="B78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
@@ -3659,9 +3657,9 @@
       <c r="B79" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
@@ -3670,9 +3668,9 @@
       <c r="B80" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
@@ -3681,9 +3679,9 @@
       <c r="B81" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
@@ -3692,9 +3690,9 @@
       <c r="B82" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4">
@@ -3703,9 +3701,9 @@
       <c r="B83" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
@@ -3714,9 +3712,9 @@
       <c r="B84" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
@@ -3725,9 +3723,9 @@
       <c r="B85" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4">
@@ -3736,9 +3734,9 @@
       <c r="B86" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4">
@@ -3747,9 +3745,9 @@
       <c r="B87" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4">
@@ -3758,9 +3756,9 @@
       <c r="B88" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4">
@@ -3769,9 +3767,9 @@
       <c r="B89" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
@@ -3780,9 +3778,9 @@
       <c r="B90" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
@@ -3791,9 +3789,9 @@
       <c r="B91" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
@@ -3802,9 +3800,9 @@
       <c r="B92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
@@ -3813,9 +3811,9 @@
       <c r="B93" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
@@ -3824,9 +3822,9 @@
       <c r="B94" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
@@ -3835,9 +3833,9 @@
       <c r="B95" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
@@ -3846,9 +3844,9 @@
       <c r="B96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
@@ -3857,9 +3855,9 @@
       <c r="B97" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
@@ -3868,9 +3866,9 @@
       <c r="B98" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
@@ -3879,9 +3877,9 @@
       <c r="B99" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
@@ -3890,9 +3888,9 @@
       <c r="B100" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4">
@@ -3901,9 +3899,9 @@
       <c r="B101" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4">
@@ -3912,9 +3910,9 @@
       <c r="B102" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4">
@@ -3923,9 +3921,9 @@
       <c r="B103" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4">
@@ -3934,9 +3932,9 @@
       <c r="B104" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4">
@@ -3945,9 +3943,9 @@
       <c r="B105" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4">
@@ -3956,9 +3954,9 @@
       <c r="B106" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4">
@@ -3967,9 +3965,9 @@
       <c r="B107" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4">
@@ -3978,9 +3976,9 @@
       <c r="B108" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4">
@@ -3989,9 +3987,9 @@
       <c r="B109" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
@@ -4000,9 +3998,9 @@
       <c r="B110" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
@@ -4011,9 +4009,9 @@
       <c r="B111" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
@@ -4022,9 +4020,9 @@
       <c r="B112" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
@@ -4033,9 +4031,9 @@
       <c r="B113" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
@@ -4044,9 +4042,9 @@
       <c r="B114" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
@@ -4055,9 +4053,9 @@
       <c r="B115" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
@@ -4066,9 +4064,9 @@
       <c r="B116" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
@@ -4077,9 +4075,9 @@
       <c r="B117" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
@@ -4088,9 +4086,9 @@
       <c r="B118" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
@@ -4099,9 +4097,9 @@
       <c r="B119" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
@@ -4110,9 +4108,9 @@
       <c r="B120" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
@@ -4121,9 +4119,9 @@
       <c r="B121" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
@@ -4132,9 +4130,9 @@
       <c r="B122" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4">
@@ -4143,9 +4141,9 @@
       <c r="B123" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4">
@@ -4154,9 +4152,9 @@
       <c r="B124" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4">
@@ -4165,9 +4163,9 @@
       <c r="B125" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4">
@@ -4176,9 +4174,9 @@
       <c r="B126" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4">
@@ -4187,9 +4185,9 @@
       <c r="B127" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4">
@@ -4198,9 +4196,9 @@
       <c r="B128" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4">
@@ -4209,9 +4207,9 @@
       <c r="B129" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4">
@@ -4220,9 +4218,9 @@
       <c r="B130" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4">
@@ -4231,9 +4229,9 @@
       <c r="B131" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4">
@@ -4242,9 +4240,9 @@
       <c r="B132" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4">
@@ -4253,9 +4251,9 @@
       <c r="B133" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4">
@@ -4264,9 +4262,9 @@
       <c r="B134" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4">
@@ -4275,9 +4273,9 @@
       <c r="B135" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4">
@@ -4286,9 +4284,9 @@
       <c r="B136" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4">
@@ -4297,9 +4295,9 @@
       <c r="B137" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4">
@@ -4308,9 +4306,9 @@
       <c r="B138" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4">
@@ -4319,9 +4317,9 @@
       <c r="B139" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4">
@@ -4330,9 +4328,9 @@
       <c r="B140" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4">
@@ -4341,9 +4339,9 @@
       <c r="B141" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4">
@@ -4352,9 +4350,9 @@
       <c r="B142" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4">
@@ -4363,9 +4361,9 @@
       <c r="B143" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4">
@@ -4374,9 +4372,9 @@
       <c r="B144" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4">
@@ -4385,9 +4383,9 @@
       <c r="B145" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4">
@@ -4396,9 +4394,9 @@
       <c r="B146" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4">
@@ -4407,9 +4405,9 @@
       <c r="B147" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4">
@@ -4418,9 +4416,9 @@
       <c r="B148" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4">
@@ -4429,9 +4427,9 @@
       <c r="B149" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4">
@@ -4440,9 +4438,9 @@
       <c r="B150" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4">
@@ -4451,9 +4449,9 @@
       <c r="B151" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4">
@@ -4462,9 +4460,9 @@
       <c r="B152" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4">
@@ -4473,9 +4471,9 @@
       <c r="B153" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4">
@@ -4484,9 +4482,9 @@
       <c r="B154" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4">
@@ -4495,9 +4493,9 @@
       <c r="B155" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4">
@@ -4506,9 +4504,9 @@
       <c r="B156" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4">
@@ -4517,9 +4515,9 @@
       <c r="B157" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4">
@@ -4528,9 +4526,9 @@
       <c r="B158" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4">
@@ -4539,9 +4537,9 @@
       <c r="B159" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4">
@@ -4550,9 +4548,9 @@
       <c r="B160" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4">
@@ -4561,9 +4559,9 @@
       <c r="B161" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4">
@@ -4572,9 +4570,9 @@
       <c r="B162" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4">
@@ -4583,9 +4581,9 @@
       <c r="B163" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4">
@@ -4594,9 +4592,9 @@
       <c r="B164" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4">
@@ -4605,9 +4603,9 @@
       <c r="B165" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4">
@@ -4616,9 +4614,9 @@
       <c r="B166" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4">
@@ -4627,9 +4625,9 @@
       <c r="B167" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4">
@@ -4638,9 +4636,9 @@
       <c r="B168" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4">
@@ -4649,9 +4647,9 @@
       <c r="B169" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4">
@@ -4660,9 +4658,9 @@
       <c r="B170" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4">
@@ -4671,9 +4669,9 @@
       <c r="B171" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4">
@@ -4682,9 +4680,9 @@
       <c r="B172" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4">
@@ -4693,9 +4691,9 @@
       <c r="B173" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4">
@@ -4704,9 +4702,9 @@
       <c r="B174" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4">
@@ -4715,9 +4713,9 @@
       <c r="B175" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4">
@@ -4726,9 +4724,9 @@
       <c r="B176" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4">
@@ -4737,9 +4735,9 @@
       <c r="B177" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4">
@@ -4748,9 +4746,9 @@
       <c r="B178" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4">
@@ -4759,9 +4757,9 @@
       <c r="B179" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4">
@@ -4770,9 +4768,9 @@
       <c r="B180" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4">
@@ -4781,9 +4779,9 @@
       <c r="B181" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4">
@@ -4792,9 +4790,9 @@
       <c r="B182" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4">
@@ -4803,9 +4801,9 @@
       <c r="B183" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4">
@@ -4814,9 +4812,9 @@
       <c r="B184" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4">
@@ -4825,9 +4823,9 @@
       <c r="B185" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4">
@@ -4836,9 +4834,9 @@
       <c r="B186" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4">
@@ -4847,9 +4845,9 @@
       <c r="B187" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4">
@@ -4858,9 +4856,9 @@
       <c r="B188" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4">
@@ -4869,9 +4867,9 @@
       <c r="B189" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4">
@@ -4880,9 +4878,9 @@
       <c r="B190" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4">
@@ -4891,9 +4889,9 @@
       <c r="B191" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4">
@@ -4902,9 +4900,9 @@
       <c r="B192" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4">
@@ -4913,9 +4911,9 @@
       <c r="B193" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4">
@@ -4924,9 +4922,9 @@
       <c r="B194" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4">
@@ -4935,9 +4933,9 @@
       <c r="B195" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4">
@@ -4946,9 +4944,9 @@
       <c r="B196" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4">
@@ -4957,9 +4955,9 @@
       <c r="B197" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4">
@@ -4968,9 +4966,9 @@
       <c r="B198" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4">
@@ -4979,9 +4977,9 @@
       <c r="B199" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4">
@@ -4990,9 +4988,9 @@
       <c r="B200" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4">
@@ -5001,9 +4999,9 @@
       <c r="B201" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4">
@@ -5012,9 +5010,9 @@
       <c r="B202" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4">
@@ -5023,9 +5021,9 @@
       <c r="B203" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4">
@@ -5034,9 +5032,9 @@
       <c r="B204" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="4">
@@ -5045,9 +5043,9 @@
       <c r="B205" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="4">
@@ -5056,9 +5054,9 @@
       <c r="B206" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="4">
@@ -5067,9 +5065,9 @@
       <c r="B207" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4">
@@ -5078,9 +5076,9 @@
       <c r="B208" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4">
@@ -5089,9 +5087,9 @@
       <c r="B209" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4">
@@ -5100,9 +5098,9 @@
       <c r="B210" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4">
@@ -5111,9 +5109,9 @@
       <c r="B211" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="4">
@@ -5122,9 +5120,9 @@
       <c r="B212" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4">
@@ -5133,9 +5131,9 @@
       <c r="B213" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="4">
@@ -5144,9 +5142,9 @@
       <c r="B214" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4">
@@ -5155,9 +5153,9 @@
       <c r="B215" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4">
@@ -5166,9 +5164,9 @@
       <c r="B216" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="4">
@@ -5177,9 +5175,9 @@
       <c r="B217" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="4">
@@ -5188,9 +5186,9 @@
       <c r="B218" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="4">
@@ -5199,9 +5197,9 @@
       <c r="B219" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="4">
@@ -5210,9 +5208,9 @@
       <c r="B220" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4">
@@ -5221,9 +5219,9 @@
       <c r="B221" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="4">
@@ -5232,9 +5230,9 @@
       <c r="B222" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="13"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="4">
@@ -5243,9 +5241,9 @@
       <c r="B223" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="4">
@@ -5254,9 +5252,9 @@
       <c r="B224" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="4">
@@ -5265,9 +5263,9 @@
       <c r="B225" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="13"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4">
@@ -5276,9 +5274,9 @@
       <c r="B226" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C226" s="13"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="4">
@@ -5287,9 +5285,9 @@
       <c r="B227" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="13"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4">
@@ -5298,9 +5296,9 @@
       <c r="B228" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C228" s="13"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="4">
@@ -5309,9 +5307,9 @@
       <c r="B229" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="13"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="4">
@@ -5320,9 +5318,9 @@
       <c r="B230" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4">
@@ -5331,9 +5329,9 @@
       <c r="B231" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="4">
@@ -5342,9 +5340,9 @@
       <c r="B232" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="4">
@@ -5353,9 +5351,9 @@
       <c r="B233" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="4">
@@ -5364,9 +5362,9 @@
       <c r="B234" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="4">
@@ -5375,9 +5373,9 @@
       <c r="B235" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="4">
@@ -5386,9 +5384,9 @@
       <c r="B236" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
-      <c r="E236" s="13"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4">
@@ -5397,9 +5395,9 @@
       <c r="B237" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13"/>
-      <c r="E237" s="13"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4">
@@ -5408,9 +5406,9 @@
       <c r="B238" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C238" s="13"/>
-      <c r="D238" s="13"/>
-      <c r="E238" s="13"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4">
@@ -5419,9 +5417,9 @@
       <c r="B239" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C239" s="13"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4">
@@ -5430,9 +5428,9 @@
       <c r="B240" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C240" s="13"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4">
@@ -5441,9 +5439,9 @@
       <c r="B241" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C241" s="13"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4">
@@ -5452,9 +5450,9 @@
       <c r="B242" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C242" s="13"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4">
@@ -5463,9 +5461,9 @@
       <c r="B243" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4">
@@ -5474,9 +5472,9 @@
       <c r="B244" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C244" s="13"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4">
@@ -5485,9 +5483,9 @@
       <c r="B245" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C245" s="13"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="13"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4">
@@ -5496,9 +5494,9 @@
       <c r="B246" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C246" s="13"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4">
@@ -5507,9 +5505,9 @@
       <c r="B247" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13"/>
-      <c r="E247" s="13"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4">
@@ -5518,9 +5516,9 @@
       <c r="B248" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C248" s="13"/>
-      <c r="D248" s="13"/>
-      <c r="E248" s="13"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4">
@@ -5529,9 +5527,9 @@
       <c r="B249" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="13"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4">
@@ -5540,9 +5538,9 @@
       <c r="B250" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C250" s="13"/>
-      <c r="D250" s="13"/>
-      <c r="E250" s="13"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4">
@@ -5551,9 +5549,9 @@
       <c r="B251" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C251" s="13"/>
-      <c r="D251" s="13"/>
-      <c r="E251" s="13"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4">
@@ -5562,9 +5560,9 @@
       <c r="B252" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="13"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4">
@@ -5573,9 +5571,9 @@
       <c r="B253" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C253" s="13"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="13"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4">
@@ -5584,9 +5582,9 @@
       <c r="B254" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
-      <c r="E254" s="13"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4">
@@ -5595,9 +5593,9 @@
       <c r="B255" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C255" s="13"/>
-      <c r="D255" s="13"/>
-      <c r="E255" s="13"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4">
@@ -5606,9 +5604,9 @@
       <c r="B256" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4">
@@ -5617,9 +5615,9 @@
       <c r="B257" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C257" s="13"/>
-      <c r="D257" s="13"/>
-      <c r="E257" s="13"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4">
@@ -5628,9 +5626,9 @@
       <c r="B258" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C258" s="13"/>
-      <c r="D258" s="13"/>
-      <c r="E258" s="13"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4">
@@ -5639,9 +5637,9 @@
       <c r="B259" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C259" s="13"/>
-      <c r="D259" s="13"/>
-      <c r="E259" s="13"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4">
@@ -5650,9 +5648,9 @@
       <c r="B260" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C260" s="13"/>
-      <c r="D260" s="13"/>
-      <c r="E260" s="13"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4">
@@ -5661,9 +5659,9 @@
       <c r="B261" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C261" s="13"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="4">
@@ -5672,9 +5670,9 @@
       <c r="B262" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="4">
@@ -5683,9 +5681,9 @@
       <c r="B263" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C263" s="13"/>
-      <c r="D263" s="13"/>
-      <c r="E263" s="13"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="4">
@@ -5694,9 +5692,9 @@
       <c r="B264" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C264" s="13"/>
-      <c r="D264" s="13"/>
-      <c r="E264" s="13"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="4">
@@ -5705,9 +5703,9 @@
       <c r="B265" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C265" s="13"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="4">
@@ -5716,9 +5714,9 @@
       <c r="B266" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C266" s="13"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="4">
@@ -5727,9 +5725,9 @@
       <c r="B267" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C267" s="13"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="4">
@@ -5738,9 +5736,9 @@
       <c r="B268" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C268" s="13"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="13"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="4">
@@ -5749,9 +5747,9 @@
       <c r="B269" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C269" s="13"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="4">
@@ -5760,9 +5758,9 @@
       <c r="B270" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C270" s="13"/>
-      <c r="D270" s="13"/>
-      <c r="E270" s="13"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="4">
@@ -5771,9 +5769,9 @@
       <c r="B271" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C271" s="13"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="4">
@@ -5782,9 +5780,9 @@
       <c r="B272" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C272" s="13"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="13"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="12"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="4">
@@ -5793,9 +5791,9 @@
       <c r="B273" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C273" s="13"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="12"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="4">
@@ -5804,9 +5802,9 @@
       <c r="B274" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C274" s="13"/>
-      <c r="D274" s="13"/>
-      <c r="E274" s="13"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="4">
@@ -5815,9 +5813,9 @@
       <c r="B275" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C275" s="13"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="13"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="4">
@@ -5826,9 +5824,9 @@
       <c r="B276" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C276" s="13"/>
-      <c r="D276" s="13"/>
-      <c r="E276" s="13"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="4">
@@ -5837,9 +5835,9 @@
       <c r="B277" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C277" s="13"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="13"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="4">
@@ -5848,9 +5846,9 @@
       <c r="B278" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C278" s="13"/>
-      <c r="D278" s="13"/>
-      <c r="E278" s="13"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="4">
@@ -5859,9 +5857,9 @@
       <c r="B279" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C279" s="13"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="13"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="4">
@@ -5870,9 +5868,9 @@
       <c r="B280" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C280" s="13"/>
-      <c r="D280" s="13"/>
-      <c r="E280" s="13"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="4">
@@ -5881,9 +5879,9 @@
       <c r="B281" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C281" s="13"/>
-      <c r="D281" s="13"/>
-      <c r="E281" s="13"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4">
@@ -5892,9 +5890,9 @@
       <c r="B282" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C282" s="13"/>
-      <c r="D282" s="13"/>
-      <c r="E282" s="13"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4">
@@ -5903,9 +5901,9 @@
       <c r="B283" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C283" s="13"/>
-      <c r="D283" s="13"/>
-      <c r="E283" s="13"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4">
@@ -5914,9 +5912,9 @@
       <c r="B284" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C284" s="13"/>
-      <c r="D284" s="13"/>
-      <c r="E284" s="13"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4">
@@ -5925,9 +5923,9 @@
       <c r="B285" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C285" s="13"/>
-      <c r="D285" s="13"/>
-      <c r="E285" s="13"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="4">
@@ -5936,9 +5934,9 @@
       <c r="B286" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C286" s="13"/>
-      <c r="D286" s="13"/>
-      <c r="E286" s="13"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4">
@@ -5947,9 +5945,9 @@
       <c r="B287" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C287" s="13"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4">
@@ -5958,9 +5956,9 @@
       <c r="B288" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C288" s="13"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="13"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4">
@@ -5969,9 +5967,9 @@
       <c r="B289" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C289" s="13"/>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="4">
@@ -5980,9 +5978,9 @@
       <c r="B290" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C290" s="13"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="4">
@@ -5991,9 +5989,9 @@
       <c r="B291" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C291" s="13"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="13"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="4">
@@ -6002,9 +6000,9 @@
       <c r="B292" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C292" s="13"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="13"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="4">
@@ -6013,9 +6011,9 @@
       <c r="B293" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C293" s="13"/>
-      <c r="D293" s="13"/>
-      <c r="E293" s="13"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="4">
@@ -6024,9 +6022,9 @@
       <c r="B294" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C294" s="13"/>
-      <c r="D294" s="13"/>
-      <c r="E294" s="13"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="4">
@@ -6035,9 +6033,9 @@
       <c r="B295" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C295" s="13"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="13"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="4">
@@ -6046,9 +6044,9 @@
       <c r="B296" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C296" s="13"/>
-      <c r="D296" s="13"/>
-      <c r="E296" s="13"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="4">
@@ -6057,9 +6055,9 @@
       <c r="B297" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C297" s="13"/>
-      <c r="D297" s="13"/>
-      <c r="E297" s="13"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="4">
@@ -6068,9 +6066,9 @@
       <c r="B298" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C298" s="13"/>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="4">
@@ -6079,9 +6077,9 @@
       <c r="B299" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C299" s="13"/>
-      <c r="D299" s="13"/>
-      <c r="E299" s="13"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="4">
@@ -6090,9 +6088,9 @@
       <c r="B300" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C300" s="13"/>
-      <c r="D300" s="13"/>
-      <c r="E300" s="13"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4">
@@ -6101,9 +6099,9 @@
       <c r="B301" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C301" s="13"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="13"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="4">
@@ -6112,9 +6110,9 @@
       <c r="B302" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C302" s="13"/>
-      <c r="D302" s="13"/>
-      <c r="E302" s="13"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="4">
@@ -6123,9 +6121,9 @@
       <c r="B303" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C303" s="13"/>
-      <c r="D303" s="13"/>
-      <c r="E303" s="13"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="4">
@@ -6134,9 +6132,9 @@
       <c r="B304" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C304" s="13"/>
-      <c r="D304" s="13"/>
-      <c r="E304" s="13"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="4">
@@ -6145,9 +6143,9 @@
       <c r="B305" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C305" s="13"/>
-      <c r="D305" s="13"/>
-      <c r="E305" s="13"/>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="4">
@@ -6156,9 +6154,9 @@
       <c r="B306" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C306" s="13"/>
-      <c r="D306" s="13"/>
-      <c r="E306" s="13"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4">
@@ -6167,9 +6165,9 @@
       <c r="B307" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C307" s="13"/>
-      <c r="D307" s="13"/>
-      <c r="E307" s="13"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="4">
@@ -6178,9 +6176,9 @@
       <c r="B308" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C308" s="13"/>
-      <c r="D308" s="13"/>
-      <c r="E308" s="13"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="4">
@@ -6189,9 +6187,9 @@
       <c r="B309" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C309" s="13"/>
-      <c r="D309" s="13"/>
-      <c r="E309" s="13"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="4">
@@ -6200,9 +6198,9 @@
       <c r="B310" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C310" s="13"/>
-      <c r="D310" s="13"/>
-      <c r="E310" s="13"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="4">
@@ -6211,9 +6209,9 @@
       <c r="B311" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C311" s="13"/>
-      <c r="D311" s="13"/>
-      <c r="E311" s="13"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="4">
@@ -6222,9 +6220,9 @@
       <c r="B312" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C312" s="13"/>
-      <c r="D312" s="13"/>
-      <c r="E312" s="13"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="4">
@@ -6233,9 +6231,9 @@
       <c r="B313" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C313" s="13"/>
-      <c r="D313" s="13"/>
-      <c r="E313" s="13"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="4">
@@ -6244,9 +6242,9 @@
       <c r="B314" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C314" s="13"/>
-      <c r="D314" s="13"/>
-      <c r="E314" s="13"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4">
@@ -6255,9 +6253,9 @@
       <c r="B315" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C315" s="13"/>
-      <c r="D315" s="13"/>
-      <c r="E315" s="13"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="4">
@@ -6266,9 +6264,9 @@
       <c r="B316" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C316" s="13"/>
-      <c r="D316" s="13"/>
-      <c r="E316" s="13"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="4">
@@ -6277,9 +6275,9 @@
       <c r="B317" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C317" s="13"/>
-      <c r="D317" s="13"/>
-      <c r="E317" s="13"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="4">
@@ -6288,9 +6286,9 @@
       <c r="B318" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C318" s="13"/>
-      <c r="D318" s="13"/>
-      <c r="E318" s="13"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="4">
@@ -6299,9 +6297,9 @@
       <c r="B319" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C319" s="13"/>
-      <c r="D319" s="13"/>
-      <c r="E319" s="13"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="4">
@@ -6310,9 +6308,9 @@
       <c r="B320" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C320" s="13"/>
-      <c r="D320" s="13"/>
-      <c r="E320" s="13"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="4">
@@ -6321,9 +6319,9 @@
       <c r="B321" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C321" s="13"/>
-      <c r="D321" s="13"/>
-      <c r="E321" s="13"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="4">
@@ -6332,9 +6330,9 @@
       <c r="B322" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C322" s="13"/>
-      <c r="D322" s="13"/>
-      <c r="E322" s="13"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="4">
@@ -6343,9 +6341,9 @@
       <c r="B323" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C323" s="13"/>
-      <c r="D323" s="13"/>
-      <c r="E323" s="13"/>
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="4">
@@ -6354,9 +6352,9 @@
       <c r="B324" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C324" s="13"/>
-      <c r="D324" s="13"/>
-      <c r="E324" s="13"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="4">
@@ -6365,9 +6363,9 @@
       <c r="B325" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="13"/>
-      <c r="D325" s="13"/>
-      <c r="E325" s="13"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="4">
@@ -6376,9 +6374,9 @@
       <c r="B326" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C326" s="13"/>
-      <c r="D326" s="13"/>
-      <c r="E326" s="13"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="4">
@@ -6387,9 +6385,9 @@
       <c r="B327" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="13"/>
-      <c r="D327" s="13"/>
-      <c r="E327" s="13"/>
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="4">
@@ -6398,9 +6396,9 @@
       <c r="B328" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C328" s="13"/>
-      <c r="D328" s="13"/>
-      <c r="E328" s="13"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="4">
@@ -6409,9 +6407,9 @@
       <c r="B329" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C329" s="13"/>
-      <c r="D329" s="13"/>
-      <c r="E329" s="13"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="4">
@@ -6420,9 +6418,9 @@
       <c r="B330" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C330" s="13"/>
-      <c r="D330" s="13"/>
-      <c r="E330" s="13"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="4">
@@ -6431,9 +6429,9 @@
       <c r="B331" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C331" s="13"/>
-      <c r="D331" s="13"/>
-      <c r="E331" s="13"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="4">
@@ -6442,9 +6440,9 @@
       <c r="B332" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C332" s="13"/>
-      <c r="D332" s="13"/>
-      <c r="E332" s="13"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="4">
@@ -6453,9 +6451,9 @@
       <c r="B333" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="13"/>
-      <c r="D333" s="13"/>
-      <c r="E333" s="13"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="4">
@@ -6464,9 +6462,9 @@
       <c r="B334" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C334" s="13"/>
-      <c r="D334" s="13"/>
-      <c r="E334" s="13"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="4">
@@ -6475,9 +6473,9 @@
       <c r="B335" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C335" s="13"/>
-      <c r="D335" s="13"/>
-      <c r="E335" s="13"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="4">
@@ -6486,9 +6484,9 @@
       <c r="B336" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C336" s="13"/>
-      <c r="D336" s="13"/>
-      <c r="E336" s="13"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="4">
@@ -6497,9 +6495,9 @@
       <c r="B337" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C337" s="13"/>
-      <c r="D337" s="13"/>
-      <c r="E337" s="13"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="4">
@@ -6508,9 +6506,9 @@
       <c r="B338" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C338" s="13"/>
-      <c r="D338" s="13"/>
-      <c r="E338" s="13"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="4">
@@ -6519,9 +6517,9 @@
       <c r="B339" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C339" s="13"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="4">
@@ -6530,9 +6528,9 @@
       <c r="B340" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C340" s="13"/>
-      <c r="D340" s="13"/>
-      <c r="E340" s="13"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="4">
@@ -6541,9 +6539,9 @@
       <c r="B341" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C341" s="13"/>
-      <c r="D341" s="13"/>
-      <c r="E341" s="13"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="4">
@@ -6552,9 +6550,9 @@
       <c r="B342" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C342" s="13"/>
-      <c r="D342" s="13"/>
-      <c r="E342" s="13"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4">
@@ -6563,9 +6561,9 @@
       <c r="B343" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C343" s="13"/>
-      <c r="D343" s="13"/>
-      <c r="E343" s="13"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="4">
@@ -6574,9 +6572,9 @@
       <c r="B344" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C344" s="13"/>
-      <c r="D344" s="13"/>
-      <c r="E344" s="13"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="4">
@@ -6585,9 +6583,9 @@
       <c r="B345" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C345" s="13"/>
-      <c r="D345" s="13"/>
-      <c r="E345" s="13"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="4">
@@ -6596,9 +6594,9 @@
       <c r="B346" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C346" s="13"/>
-      <c r="D346" s="13"/>
-      <c r="E346" s="13"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="4">
@@ -6607,9 +6605,9 @@
       <c r="B347" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C347" s="13"/>
-      <c r="D347" s="13"/>
-      <c r="E347" s="13"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="4">
@@ -6618,9 +6616,9 @@
       <c r="B348" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C348" s="13"/>
-      <c r="D348" s="13"/>
-      <c r="E348" s="13"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="4">
@@ -6629,9 +6627,9 @@
       <c r="B349" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C349" s="13"/>
-      <c r="D349" s="13"/>
-      <c r="E349" s="13"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="4">
@@ -6640,9 +6638,9 @@
       <c r="B350" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C350" s="13"/>
-      <c r="D350" s="13"/>
-      <c r="E350" s="13"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="4">
@@ -6651,9 +6649,9 @@
       <c r="B351" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C351" s="13"/>
-      <c r="D351" s="13"/>
-      <c r="E351" s="13"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="4">
@@ -6662,9 +6660,9 @@
       <c r="B352" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C352" s="13"/>
-      <c r="D352" s="13"/>
-      <c r="E352" s="13"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="4">
@@ -6673,9 +6671,9 @@
       <c r="B353" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C353" s="13"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="4">
@@ -6684,9 +6682,9 @@
       <c r="B354" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C354" s="13"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="13"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="4">
@@ -6695,9 +6693,9 @@
       <c r="B355" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C355" s="13"/>
-      <c r="D355" s="13"/>
-      <c r="E355" s="13"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="4">
@@ -6706,9 +6704,9 @@
       <c r="B356" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C356" s="13"/>
-      <c r="D356" s="13"/>
-      <c r="E356" s="13"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="4">
@@ -6717,9 +6715,9 @@
       <c r="B357" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C357" s="13"/>
-      <c r="D357" s="13"/>
-      <c r="E357" s="13"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="4">
@@ -6728,9 +6726,9 @@
       <c r="B358" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C358" s="13"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="4">
@@ -6739,9 +6737,9 @@
       <c r="B359" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C359" s="13"/>
-      <c r="D359" s="13"/>
-      <c r="E359" s="13"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="4">
@@ -6750,9 +6748,9 @@
       <c r="B360" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C360" s="13"/>
-      <c r="D360" s="13"/>
-      <c r="E360" s="13"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="4">
@@ -6761,9 +6759,9 @@
       <c r="B361" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C361" s="13"/>
-      <c r="D361" s="13"/>
-      <c r="E361" s="13"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="4">
@@ -6772,9 +6770,9 @@
       <c r="B362" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C362" s="13"/>
-      <c r="D362" s="13"/>
-      <c r="E362" s="13"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="4">
@@ -6783,9 +6781,9 @@
       <c r="B363" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C363" s="13"/>
-      <c r="D363" s="13"/>
-      <c r="E363" s="13"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="4">
@@ -6794,9 +6792,9 @@
       <c r="B364" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="4">
@@ -6805,9 +6803,9 @@
       <c r="B365" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C365" s="13"/>
-      <c r="D365" s="13"/>
-      <c r="E365" s="13"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="4">
@@ -6816,9 +6814,9 @@
       <c r="B366" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C366" s="13"/>
-      <c r="D366" s="13"/>
-      <c r="E366" s="13"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="4">
@@ -6827,9 +6825,9 @@
       <c r="B367" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C367" s="13"/>
-      <c r="D367" s="13"/>
-      <c r="E367" s="13"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="4">
@@ -6838,9 +6836,9 @@
       <c r="B368" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C368" s="13"/>
-      <c r="D368" s="13"/>
-      <c r="E368" s="13"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="4">
@@ -6849,9 +6847,9 @@
       <c r="B369" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C369" s="13"/>
-      <c r="D369" s="13"/>
-      <c r="E369" s="13"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4">
@@ -6860,9 +6858,9 @@
       <c r="B370" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C370" s="13"/>
-      <c r="D370" s="13"/>
-      <c r="E370" s="13"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="4">
@@ -6871,9 +6869,9 @@
       <c r="B371" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C371" s="13"/>
-      <c r="D371" s="13"/>
-      <c r="E371" s="13"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="4">
@@ -6882,9 +6880,9 @@
       <c r="B372" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C372" s="13"/>
-      <c r="D372" s="13"/>
-      <c r="E372" s="13"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="4">
@@ -6893,9 +6891,9 @@
       <c r="B373" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C373" s="13"/>
-      <c r="D373" s="13"/>
-      <c r="E373" s="13"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="4">
@@ -6904,9 +6902,9 @@
       <c r="B374" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C374" s="13"/>
-      <c r="D374" s="13"/>
-      <c r="E374" s="13"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="4">
@@ -6915,9 +6913,9 @@
       <c r="B375" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C375" s="13"/>
-      <c r="D375" s="13"/>
-      <c r="E375" s="13"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4">
@@ -6926,9 +6924,9 @@
       <c r="B376" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C376" s="13"/>
-      <c r="D376" s="13"/>
-      <c r="E376" s="13"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="4">
@@ -6937,9 +6935,9 @@
       <c r="B377" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="4">
@@ -6948,9 +6946,9 @@
       <c r="B378" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C378" s="13"/>
-      <c r="D378" s="13"/>
-      <c r="E378" s="13"/>
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="4">
@@ -6959,9 +6957,9 @@
       <c r="B379" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C379" s="13"/>
-      <c r="D379" s="13"/>
-      <c r="E379" s="13"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="4">
@@ -6970,9 +6968,9 @@
       <c r="B380" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C380" s="13"/>
-      <c r="D380" s="13"/>
-      <c r="E380" s="13"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="4">
@@ -6981,9 +6979,9 @@
       <c r="B381" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C381" s="13"/>
-      <c r="D381" s="13"/>
-      <c r="E381" s="13"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="4">
@@ -6992,9 +6990,9 @@
       <c r="B382" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C382" s="13"/>
-      <c r="D382" s="13"/>
-      <c r="E382" s="13"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="4">
@@ -7003,9 +7001,9 @@
       <c r="B383" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C383" s="13"/>
-      <c r="D383" s="13"/>
-      <c r="E383" s="13"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="4">
@@ -7014,9 +7012,9 @@
       <c r="B384" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C384" s="13"/>
-      <c r="D384" s="13"/>
-      <c r="E384" s="13"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="4">
@@ -7025,9 +7023,9 @@
       <c r="B385" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C385" s="13"/>
-      <c r="D385" s="13"/>
-      <c r="E385" s="13"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4">
@@ -7036,9 +7034,9 @@
       <c r="B386" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C386" s="13"/>
-      <c r="D386" s="13"/>
-      <c r="E386" s="13"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4">
@@ -7047,9 +7045,9 @@
       <c r="B387" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C387" s="13"/>
-      <c r="D387" s="13"/>
-      <c r="E387" s="13"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="4">
@@ -7058,9 +7056,9 @@
       <c r="B388" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C388" s="13"/>
-      <c r="D388" s="13"/>
-      <c r="E388" s="13"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="4">
@@ -7069,9 +7067,9 @@
       <c r="B389" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C389" s="13"/>
-      <c r="D389" s="13"/>
-      <c r="E389" s="13"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="4">
@@ -7080,9 +7078,9 @@
       <c r="B390" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C390" s="13"/>
-      <c r="D390" s="13"/>
-      <c r="E390" s="13"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="12"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="4">
@@ -7091,9 +7089,9 @@
       <c r="B391" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C391" s="13"/>
-      <c r="D391" s="13"/>
-      <c r="E391" s="13"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="4">
@@ -7102,9 +7100,9 @@
       <c r="B392" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C392" s="13"/>
-      <c r="D392" s="13"/>
-      <c r="E392" s="13"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4">
@@ -7113,9 +7111,9 @@
       <c r="B393" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C393" s="13"/>
-      <c r="D393" s="13"/>
-      <c r="E393" s="13"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="12"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="4">
@@ -7124,9 +7122,9 @@
       <c r="B394" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C394" s="13"/>
-      <c r="D394" s="13"/>
-      <c r="E394" s="13"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="12"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="4">
@@ -7135,9 +7133,9 @@
       <c r="B395" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C395" s="13"/>
-      <c r="D395" s="13"/>
-      <c r="E395" s="13"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="4">
@@ -7146,9 +7144,9 @@
       <c r="B396" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C396" s="13"/>
-      <c r="D396" s="13"/>
-      <c r="E396" s="13"/>
+      <c r="C396" s="12"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="4">
@@ -7157,9 +7155,9 @@
       <c r="B397" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C397" s="13"/>
-      <c r="D397" s="13"/>
-      <c r="E397" s="13"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="12"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="4">
@@ -7168,9 +7166,9 @@
       <c r="B398" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C398" s="13"/>
-      <c r="D398" s="13"/>
-      <c r="E398" s="13"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="4">
@@ -7179,9 +7177,9 @@
       <c r="B399" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C399" s="13"/>
-      <c r="D399" s="13"/>
-      <c r="E399" s="13"/>
+      <c r="C399" s="12"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="4">
@@ -7190,9 +7188,9 @@
       <c r="B400" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C400" s="13"/>
-      <c r="D400" s="13"/>
-      <c r="E400" s="13"/>
+      <c r="C400" s="11"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="4">
@@ -7201,9 +7199,9 @@
       <c r="B401" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C401" s="13"/>
-      <c r="D401" s="13"/>
-      <c r="E401" s="13"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="4">
@@ -7212,9 +7210,9 @@
       <c r="B402" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C402" s="13"/>
-      <c r="D402" s="13"/>
-      <c r="E402" s="13"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="4">
@@ -7223,9 +7221,9 @@
       <c r="B403" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C403" s="13"/>
-      <c r="D403" s="13"/>
-      <c r="E403" s="13"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="4">
@@ -7234,9 +7232,9 @@
       <c r="B404" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C404" s="13"/>
-      <c r="D404" s="13"/>
-      <c r="E404" s="13"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="4">
@@ -7245,9 +7243,9 @@
       <c r="B405" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C405" s="13"/>
-      <c r="D405" s="13"/>
-      <c r="E405" s="13"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="4">
@@ -7256,9 +7254,9 @@
       <c r="B406" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C406" s="13"/>
-      <c r="D406" s="13"/>
-      <c r="E406" s="13"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="4">
@@ -7267,9 +7265,9 @@
       <c r="B407" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C407" s="13"/>
-      <c r="D407" s="13"/>
-      <c r="E407" s="13"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="12"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="4">
@@ -7278,9 +7276,9 @@
       <c r="B408" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C408" s="13"/>
-      <c r="D408" s="13"/>
-      <c r="E408" s="13"/>
+      <c r="C408" s="12"/>
+      <c r="D408" s="12"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="4">
@@ -7289,9 +7287,9 @@
       <c r="B409" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C409" s="13"/>
-      <c r="D409" s="13"/>
-      <c r="E409" s="13"/>
+      <c r="C409" s="12"/>
+      <c r="D409" s="12"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="4">
@@ -7300,9 +7298,9 @@
       <c r="B410" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C410" s="13"/>
-      <c r="D410" s="13"/>
-      <c r="E410" s="13"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="12"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="4">
@@ -7311,9 +7309,9 @@
       <c r="B411" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C411" s="13"/>
-      <c r="D411" s="13"/>
-      <c r="E411" s="13"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="4">
@@ -7322,9 +7320,9 @@
       <c r="B412" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C412" s="13"/>
-      <c r="D412" s="13"/>
-      <c r="E412" s="13"/>
+      <c r="C412" s="12"/>
+      <c r="D412" s="12"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="4">
@@ -7333,9 +7331,9 @@
       <c r="B413" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C413" s="13"/>
-      <c r="D413" s="13"/>
-      <c r="E413" s="13"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="12"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="4">
@@ -7344,9 +7342,9 @@
       <c r="B414" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C414" s="13"/>
-      <c r="D414" s="13"/>
-      <c r="E414" s="13"/>
+      <c r="C414" s="12"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="4">
@@ -7355,9 +7353,9 @@
       <c r="B415" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C415" s="13"/>
-      <c r="D415" s="13"/>
-      <c r="E415" s="13"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="12"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="4">
@@ -7366,9 +7364,9 @@
       <c r="B416" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C416" s="13"/>
-      <c r="D416" s="13"/>
-      <c r="E416" s="13"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="4">
@@ -7377,9 +7375,9 @@
       <c r="B417" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C417" s="13"/>
-      <c r="D417" s="13"/>
-      <c r="E417" s="13"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="12"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="4">
@@ -7388,9 +7386,9 @@
       <c r="B418" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C418" s="13"/>
-      <c r="D418" s="13"/>
-      <c r="E418" s="13"/>
+      <c r="C418" s="12"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="4">
@@ -7399,9 +7397,9 @@
       <c r="B419" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C419" s="13"/>
-      <c r="D419" s="13"/>
-      <c r="E419" s="13"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="4">
@@ -7410,9 +7408,9 @@
       <c r="B420" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C420" s="13"/>
-      <c r="D420" s="13"/>
-      <c r="E420" s="13"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="4">
@@ -7421,9 +7419,9 @@
       <c r="B421" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C421" s="13"/>
-      <c r="D421" s="13"/>
-      <c r="E421" s="13"/>
+      <c r="C421" s="12"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="4">
@@ -7432,9 +7430,9 @@
       <c r="B422" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C422" s="13"/>
-      <c r="D422" s="13"/>
-      <c r="E422" s="13"/>
+      <c r="C422" s="12"/>
+      <c r="D422" s="12"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="4">
@@ -7443,9 +7441,9 @@
       <c r="B423" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C423" s="13"/>
-      <c r="D423" s="13"/>
-      <c r="E423" s="13"/>
+      <c r="C423" s="12"/>
+      <c r="D423" s="12"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="4">
@@ -7454,9 +7452,9 @@
       <c r="B424" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C424" s="13"/>
-      <c r="D424" s="13"/>
-      <c r="E424" s="13"/>
+      <c r="C424" s="12"/>
+      <c r="D424" s="12"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="4">
@@ -7465,9 +7463,9 @@
       <c r="B425" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C425" s="13"/>
-      <c r="D425" s="13"/>
-      <c r="E425" s="13"/>
+      <c r="C425" s="12"/>
+      <c r="D425" s="12"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="4">
@@ -7476,9 +7474,9 @@
       <c r="B426" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C426" s="13"/>
-      <c r="D426" s="13"/>
-      <c r="E426" s="13"/>
+      <c r="C426" s="12"/>
+      <c r="D426" s="12"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="4">
@@ -7487,9 +7485,9 @@
       <c r="B427" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C427" s="13"/>
-      <c r="D427" s="13"/>
-      <c r="E427" s="13"/>
+      <c r="C427" s="12"/>
+      <c r="D427" s="12"/>
+      <c r="E427" s="11"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="4">
@@ -7498,9 +7496,9 @@
       <c r="B428" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C428" s="13"/>
-      <c r="D428" s="13"/>
-      <c r="E428" s="13"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="4">
@@ -7509,9 +7507,9 @@
       <c r="B429" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C429" s="13"/>
-      <c r="D429" s="13"/>
-      <c r="E429" s="13"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="4">
@@ -7520,9 +7518,9 @@
       <c r="B430" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C430" s="13"/>
-      <c r="D430" s="13"/>
-      <c r="E430" s="13"/>
+      <c r="C430" s="12"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="4">
@@ -7531,9 +7529,9 @@
       <c r="B431" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C431" s="13"/>
-      <c r="D431" s="13"/>
-      <c r="E431" s="13"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="4">
@@ -7542,9 +7540,9 @@
       <c r="B432" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C432" s="13"/>
-      <c r="D432" s="13"/>
-      <c r="E432" s="13"/>
+      <c r="C432" s="12"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="4">
@@ -7553,9 +7551,9 @@
       <c r="B433" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C433" s="13"/>
-      <c r="D433" s="13"/>
-      <c r="E433" s="13"/>
+      <c r="C433" s="12"/>
+      <c r="D433" s="12"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="4">
@@ -7564,9 +7562,9 @@
       <c r="B434" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C434" s="13"/>
-      <c r="D434" s="13"/>
-      <c r="E434" s="13"/>
+      <c r="C434" s="12"/>
+      <c r="D434" s="12"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="4">
@@ -7575,9 +7573,9 @@
       <c r="B435" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C435" s="13"/>
-      <c r="D435" s="13"/>
-      <c r="E435" s="13"/>
+      <c r="C435" s="12"/>
+      <c r="D435" s="12"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="4">
@@ -7586,9 +7584,9 @@
       <c r="B436" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C436" s="13"/>
-      <c r="D436" s="13"/>
-      <c r="E436" s="13"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="4">
@@ -7597,9 +7595,9 @@
       <c r="B437" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C437" s="13"/>
-      <c r="D437" s="13"/>
-      <c r="E437" s="13"/>
+      <c r="C437" s="12"/>
+      <c r="D437" s="12"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="4">
@@ -7608,9 +7606,9 @@
       <c r="B438" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C438" s="13"/>
-      <c r="D438" s="13"/>
-      <c r="E438" s="13"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="4">
@@ -7619,9 +7617,9 @@
       <c r="B439" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C439" s="13"/>
-      <c r="D439" s="13"/>
-      <c r="E439" s="13"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="4">
@@ -7630,9 +7628,9 @@
       <c r="B440" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C440" s="13"/>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13"/>
+      <c r="C440" s="12"/>
+      <c r="D440" s="12"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="4">
@@ -7641,9 +7639,9 @@
       <c r="B441" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C441" s="13"/>
-      <c r="D441" s="13"/>
-      <c r="E441" s="13"/>
+      <c r="C441" s="12"/>
+      <c r="D441" s="12"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="4">
@@ -7652,9 +7650,9 @@
       <c r="B442" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C442" s="13"/>
-      <c r="D442" s="13"/>
-      <c r="E442" s="13"/>
+      <c r="C442" s="12"/>
+      <c r="D442" s="12"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="4">
@@ -7663,9 +7661,9 @@
       <c r="B443" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C443" s="13"/>
-      <c r="D443" s="13"/>
-      <c r="E443" s="13"/>
+      <c r="C443" s="12"/>
+      <c r="D443" s="12"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="4">
@@ -7674,9 +7672,9 @@
       <c r="B444" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C444" s="13"/>
-      <c r="D444" s="13"/>
-      <c r="E444" s="13"/>
+      <c r="C444" s="12"/>
+      <c r="D444" s="12"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="4">
@@ -7685,9 +7683,9 @@
       <c r="B445" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C445" s="13"/>
-      <c r="D445" s="13"/>
-      <c r="E445" s="13"/>
+      <c r="C445" s="12"/>
+      <c r="D445" s="12"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="4">
@@ -7696,9 +7694,9 @@
       <c r="B446" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C446" s="13"/>
-      <c r="D446" s="13"/>
-      <c r="E446" s="13"/>
+      <c r="C446" s="12"/>
+      <c r="D446" s="12"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="4">
@@ -7707,9 +7705,9 @@
       <c r="B447" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C447" s="13"/>
-      <c r="D447" s="13"/>
-      <c r="E447" s="13"/>
+      <c r="C447" s="12"/>
+      <c r="D447" s="12"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="4">
@@ -7718,9 +7716,9 @@
       <c r="B448" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C448" s="13"/>
-      <c r="D448" s="13"/>
-      <c r="E448" s="13"/>
+      <c r="C448" s="12"/>
+      <c r="D448" s="12"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="4">
@@ -7729,9 +7727,9 @@
       <c r="B449" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C449" s="13"/>
-      <c r="D449" s="13"/>
-      <c r="E449" s="13"/>
+      <c r="C449" s="12"/>
+      <c r="D449" s="12"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="4">
@@ -7740,9 +7738,9 @@
       <c r="B450" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C450" s="13"/>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13"/>
+      <c r="C450" s="12"/>
+      <c r="D450" s="12"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="4">
@@ -7751,9 +7749,9 @@
       <c r="B451" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C451" s="13"/>
-      <c r="D451" s="13"/>
-      <c r="E451" s="13"/>
+      <c r="C451" s="12"/>
+      <c r="D451" s="12"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="4">
@@ -7762,9 +7760,9 @@
       <c r="B452" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C452" s="13"/>
-      <c r="D452" s="13"/>
-      <c r="E452" s="13"/>
+      <c r="C452" s="11"/>
+      <c r="D452" s="11"/>
+      <c r="E452" s="11"/>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="4">
@@ -7773,9 +7771,9 @@
       <c r="B453" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C453" s="13"/>
-      <c r="D453" s="13"/>
-      <c r="E453" s="13"/>
+      <c r="C453" s="12"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="4">
@@ -7784,9 +7782,9 @@
       <c r="B454" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C454" s="13"/>
-      <c r="D454" s="13"/>
-      <c r="E454" s="13"/>
+      <c r="C454" s="11"/>
+      <c r="D454" s="11"/>
+      <c r="E454" s="11"/>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="4">
@@ -7795,9 +7793,9 @@
       <c r="B455" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C455" s="13"/>
-      <c r="D455" s="13"/>
-      <c r="E455" s="13"/>
+      <c r="C455" s="12"/>
+      <c r="D455" s="11"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="4">
@@ -7806,9 +7804,9 @@
       <c r="B456" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C456" s="13"/>
-      <c r="D456" s="13"/>
-      <c r="E456" s="13"/>
+      <c r="C456" s="12"/>
+      <c r="D456" s="12"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="4">
@@ -7817,9 +7815,9 @@
       <c r="B457" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C457" s="13"/>
-      <c r="D457" s="13"/>
-      <c r="E457" s="13"/>
+      <c r="C457" s="12"/>
+      <c r="D457" s="12"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="4">
@@ -7828,9 +7826,9 @@
       <c r="B458" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C458" s="13"/>
-      <c r="D458" s="13"/>
-      <c r="E458" s="13"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="12"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="4">
@@ -7839,9 +7837,9 @@
       <c r="B459" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C459" s="13"/>
-      <c r="D459" s="13"/>
-      <c r="E459" s="13"/>
+      <c r="C459" s="12"/>
+      <c r="D459" s="12"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="4">
@@ -7850,9 +7848,9 @@
       <c r="B460" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C460" s="13"/>
-      <c r="D460" s="13"/>
-      <c r="E460" s="13"/>
+      <c r="C460" s="12"/>
+      <c r="D460" s="12"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="4">
@@ -7861,9 +7859,9 @@
       <c r="B461" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C461" s="13"/>
-      <c r="D461" s="13"/>
-      <c r="E461" s="13"/>
+      <c r="C461" s="12"/>
+      <c r="D461" s="12"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="4">
@@ -7872,9 +7870,9 @@
       <c r="B462" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C462" s="13"/>
-      <c r="D462" s="13"/>
-      <c r="E462" s="13"/>
+      <c r="C462" s="12"/>
+      <c r="D462" s="12"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="4">
@@ -7883,9 +7881,9 @@
       <c r="B463" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C463" s="13"/>
-      <c r="D463" s="13"/>
-      <c r="E463" s="13"/>
+      <c r="C463" s="12"/>
+      <c r="D463" s="12"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4">
@@ -7894,9 +7892,9 @@
       <c r="B464" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C464" s="13"/>
-      <c r="D464" s="13"/>
-      <c r="E464" s="13"/>
+      <c r="C464" s="12"/>
+      <c r="D464" s="12"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="4">
@@ -7905,9 +7903,9 @@
       <c r="B465" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C465" s="13"/>
-      <c r="D465" s="13"/>
-      <c r="E465" s="13"/>
+      <c r="C465" s="12"/>
+      <c r="D465" s="12"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="4">
@@ -7916,9 +7914,9 @@
       <c r="B466" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C466" s="13"/>
-      <c r="D466" s="13"/>
-      <c r="E466" s="13"/>
+      <c r="C466" s="12"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="4">
@@ -7927,9 +7925,9 @@
       <c r="B467" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C467" s="13"/>
-      <c r="D467" s="13"/>
-      <c r="E467" s="13"/>
+      <c r="C467" s="12"/>
+      <c r="D467" s="12"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="4">
@@ -7938,9 +7936,9 @@
       <c r="B468" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C468" s="13"/>
-      <c r="D468" s="13"/>
-      <c r="E468" s="13"/>
+      <c r="C468" s="12"/>
+      <c r="D468" s="12"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="4">
@@ -7949,9 +7947,9 @@
       <c r="B469" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C469" s="13"/>
-      <c r="D469" s="13"/>
-      <c r="E469" s="13"/>
+      <c r="C469" s="12"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="4">
@@ -7960,9 +7958,9 @@
       <c r="B470" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C470" s="13"/>
-      <c r="D470" s="13"/>
-      <c r="E470" s="13"/>
+      <c r="C470" s="12"/>
+      <c r="D470" s="12"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="4">
@@ -7971,9 +7969,9 @@
       <c r="B471" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C471" s="13"/>
-      <c r="D471" s="13"/>
-      <c r="E471" s="13"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="4">
@@ -7982,9 +7980,9 @@
       <c r="B472" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C472" s="13"/>
-      <c r="D472" s="13"/>
-      <c r="E472" s="13"/>
+      <c r="C472" s="12"/>
+      <c r="D472" s="12"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="4">
@@ -7993,9 +7991,9 @@
       <c r="B473" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C473" s="13"/>
-      <c r="D473" s="13"/>
-      <c r="E473" s="13"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4">
@@ -8004,9 +8002,9 @@
       <c r="B474" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C474" s="13"/>
-      <c r="D474" s="13"/>
-      <c r="E474" s="13"/>
+      <c r="C474" s="12"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="4">
@@ -8015,9 +8013,9 @@
       <c r="B475" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C475" s="13"/>
-      <c r="D475" s="13"/>
-      <c r="E475" s="13"/>
+      <c r="C475" s="12"/>
+      <c r="D475" s="12"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="4">
@@ -8026,9 +8024,9 @@
       <c r="B476" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C476" s="13"/>
-      <c r="D476" s="13"/>
-      <c r="E476" s="13"/>
+      <c r="C476" s="12"/>
+      <c r="D476" s="12"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="4">
@@ -8037,9 +8035,9 @@
       <c r="B477" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C477" s="13"/>
-      <c r="D477" s="13"/>
-      <c r="E477" s="13"/>
+      <c r="C477" s="11"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11"/>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="4">
@@ -8048,9 +8046,9 @@
       <c r="B478" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C478" s="13"/>
-      <c r="D478" s="13"/>
-      <c r="E478" s="13"/>
+      <c r="C478" s="12"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="4">
@@ -8059,9 +8057,9 @@
       <c r="B479" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C479" s="13"/>
-      <c r="D479" s="13"/>
-      <c r="E479" s="13"/>
+      <c r="C479" s="12"/>
+      <c r="D479" s="12"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="4">
@@ -8070,9 +8068,9 @@
       <c r="B480" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C480" s="13"/>
-      <c r="D480" s="13"/>
-      <c r="E480" s="13"/>
+      <c r="C480" s="12"/>
+      <c r="D480" s="12"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="4">
@@ -8081,9 +8079,9 @@
       <c r="B481" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C481" s="13"/>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13"/>
+      <c r="C481" s="12"/>
+      <c r="D481" s="12"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="4">
@@ -8092,9 +8090,9 @@
       <c r="B482" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C482" s="13"/>
-      <c r="D482" s="13"/>
-      <c r="E482" s="13"/>
+      <c r="C482" s="12"/>
+      <c r="D482" s="12"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="4">
@@ -8103,9 +8101,9 @@
       <c r="B483" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C483" s="13"/>
-      <c r="D483" s="13"/>
-      <c r="E483" s="13"/>
+      <c r="C483" s="12"/>
+      <c r="D483" s="12"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="4">
@@ -8114,9 +8112,9 @@
       <c r="B484" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C484" s="13"/>
-      <c r="D484" s="13"/>
-      <c r="E484" s="13"/>
+      <c r="C484" s="12"/>
+      <c r="D484" s="12"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4">
@@ -8125,9 +8123,9 @@
       <c r="B485" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C485" s="13"/>
-      <c r="D485" s="13"/>
-      <c r="E485" s="13"/>
+      <c r="C485" s="11"/>
+      <c r="D485" s="11"/>
+      <c r="E485" s="11"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="4">
@@ -8136,9 +8134,9 @@
       <c r="B486" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C486" s="13"/>
-      <c r="D486" s="13"/>
-      <c r="E486" s="13"/>
+      <c r="C486" s="12"/>
+      <c r="D486" s="11"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="4">
@@ -8147,9 +8145,9 @@
       <c r="B487" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C487" s="13"/>
-      <c r="D487" s="13"/>
-      <c r="E487" s="13"/>
+      <c r="C487" s="12"/>
+      <c r="D487" s="12"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="4">
@@ -8158,9 +8156,9 @@
       <c r="B488" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C488" s="13"/>
-      <c r="D488" s="13"/>
-      <c r="E488" s="13"/>
+      <c r="C488" s="12"/>
+      <c r="D488" s="12"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="4">
@@ -8169,9 +8167,9 @@
       <c r="B489" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C489" s="13"/>
-      <c r="D489" s="13"/>
-      <c r="E489" s="13"/>
+      <c r="C489" s="12"/>
+      <c r="D489" s="12"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="4">
@@ -8180,9 +8178,9 @@
       <c r="B490" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C490" s="13"/>
-      <c r="D490" s="13"/>
-      <c r="E490" s="13"/>
+      <c r="C490" s="12"/>
+      <c r="D490" s="12"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="4">
@@ -8191,9 +8189,9 @@
       <c r="B491" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C491" s="13"/>
-      <c r="D491" s="13"/>
-      <c r="E491" s="13"/>
+      <c r="C491" s="12"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="4">
@@ -8202,9 +8200,9 @@
       <c r="B492" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C492" s="13"/>
-      <c r="D492" s="13"/>
-      <c r="E492" s="13"/>
+      <c r="C492" s="12"/>
+      <c r="D492" s="12"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="4">
@@ -8213,9 +8211,9 @@
       <c r="B493" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C493" s="13"/>
-      <c r="D493" s="13"/>
-      <c r="E493" s="13"/>
+      <c r="C493" s="12"/>
+      <c r="D493" s="12"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="4">
@@ -8224,9 +8222,9 @@
       <c r="B494" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C494" s="13"/>
-      <c r="D494" s="13"/>
-      <c r="E494" s="13"/>
+      <c r="C494" s="12"/>
+      <c r="D494" s="12"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="4">
@@ -8235,9 +8233,9 @@
       <c r="B495" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C495" s="13"/>
-      <c r="D495" s="13"/>
-      <c r="E495" s="13"/>
+      <c r="C495" s="12"/>
+      <c r="D495" s="12"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="4">
@@ -8246,9 +8244,9 @@
       <c r="B496" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C496" s="13"/>
-      <c r="D496" s="13"/>
-      <c r="E496" s="13"/>
+      <c r="C496" s="12"/>
+      <c r="D496" s="12"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="4">
@@ -8257,9 +8255,9 @@
       <c r="B497" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C497" s="13"/>
-      <c r="D497" s="13"/>
-      <c r="E497" s="13"/>
+      <c r="C497" s="12"/>
+      <c r="D497" s="12"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="4">
@@ -8268,9 +8266,9 @@
       <c r="B498" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C498" s="13"/>
-      <c r="D498" s="13"/>
-      <c r="E498" s="13"/>
+      <c r="C498" s="12"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="4">
@@ -8279,9 +8277,9 @@
       <c r="B499" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C499" s="13"/>
-      <c r="D499" s="13"/>
-      <c r="E499" s="13"/>
+      <c r="C499" s="12"/>
+      <c r="D499" s="12"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="4">
@@ -8290,9 +8288,9 @@
       <c r="B500" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C500" s="13"/>
-      <c r="D500" s="13"/>
-      <c r="E500" s="13"/>
+      <c r="C500" s="12"/>
+      <c r="D500" s="12"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="4">
@@ -8301,9 +8299,9 @@
       <c r="B501" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C501" s="13"/>
-      <c r="D501" s="13"/>
-      <c r="E501" s="13"/>
+      <c r="C501" s="12"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="4">
@@ -8312,9 +8310,9 @@
       <c r="B502" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C502" s="13"/>
-      <c r="D502" s="13"/>
-      <c r="E502" s="13"/>
+      <c r="C502" s="12"/>
+      <c r="D502" s="12"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="4">
@@ -8323,9 +8321,9 @@
       <c r="B503" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C503" s="13"/>
-      <c r="D503" s="13"/>
-      <c r="E503" s="13"/>
+      <c r="C503" s="12"/>
+      <c r="D503" s="12"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="4">
@@ -8334,9 +8332,9 @@
       <c r="B504" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C504" s="13"/>
-      <c r="D504" s="13"/>
-      <c r="E504" s="13"/>
+      <c r="C504" s="12"/>
+      <c r="D504" s="12"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4">
@@ -8345,9 +8343,9 @@
       <c r="B505" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C505" s="13"/>
-      <c r="D505" s="13"/>
-      <c r="E505" s="13"/>
+      <c r="C505" s="12"/>
+      <c r="D505" s="12"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="4">
@@ -8356,9 +8354,9 @@
       <c r="B506" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C506" s="13"/>
-      <c r="D506" s="13"/>
-      <c r="E506" s="13"/>
+      <c r="C506" s="12"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="4">
@@ -8367,9 +8365,9 @@
       <c r="B507" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C507" s="13"/>
-      <c r="D507" s="13"/>
-      <c r="E507" s="13"/>
+      <c r="C507" s="12"/>
+      <c r="D507" s="12"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="4">
@@ -8378,9 +8376,9 @@
       <c r="B508" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C508" s="13"/>
-      <c r="D508" s="13"/>
-      <c r="E508" s="13"/>
+      <c r="C508" s="12"/>
+      <c r="D508" s="12"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="4">
@@ -8389,9 +8387,9 @@
       <c r="B509" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C509" s="13"/>
-      <c r="D509" s="13"/>
-      <c r="E509" s="13"/>
+      <c r="C509" s="12"/>
+      <c r="D509" s="12"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="4">
@@ -8400,9 +8398,9 @@
       <c r="B510" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C510" s="13"/>
-      <c r="D510" s="13"/>
-      <c r="E510" s="13"/>
+      <c r="C510" s="12"/>
+      <c r="D510" s="12"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="4">
@@ -8411,9 +8409,9 @@
       <c r="B511" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C511" s="13"/>
-      <c r="D511" s="13"/>
-      <c r="E511" s="13"/>
+      <c r="C511" s="12"/>
+      <c r="D511" s="12"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="4">
@@ -8422,9 +8420,9 @@
       <c r="B512" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C512" s="13"/>
-      <c r="D512" s="13"/>
-      <c r="E512" s="13"/>
+      <c r="C512" s="12"/>
+      <c r="D512" s="12"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="4">
@@ -8433,9 +8431,9 @@
       <c r="B513" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C513" s="13"/>
-      <c r="D513" s="13"/>
-      <c r="E513" s="13"/>
+      <c r="C513" s="12"/>
+      <c r="D513" s="12"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="4">
@@ -8444,9 +8442,9 @@
       <c r="B514" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C514" s="13"/>
-      <c r="D514" s="13"/>
-      <c r="E514" s="13"/>
+      <c r="C514" s="12"/>
+      <c r="D514" s="12"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="4">
@@ -8455,9 +8453,9 @@
       <c r="B515" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C515" s="13"/>
-      <c r="D515" s="13"/>
-      <c r="E515" s="13"/>
+      <c r="C515" s="12"/>
+      <c r="D515" s="12"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="4">
@@ -8466,9 +8464,9 @@
       <c r="B516" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C516" s="13"/>
-      <c r="D516" s="13"/>
-      <c r="E516" s="13"/>
+      <c r="C516" s="12"/>
+      <c r="D516" s="12"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="4">
@@ -8477,9 +8475,9 @@
       <c r="B517" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C517" s="13"/>
-      <c r="D517" s="13"/>
-      <c r="E517" s="13"/>
+      <c r="C517" s="12"/>
+      <c r="D517" s="12"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="4">
@@ -8488,9 +8486,9 @@
       <c r="B518" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C518" s="13"/>
-      <c r="D518" s="13"/>
-      <c r="E518" s="13"/>
+      <c r="C518" s="12"/>
+      <c r="D518" s="12"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="4">
@@ -8499,9 +8497,9 @@
       <c r="B519" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C519" s="13"/>
-      <c r="D519" s="13"/>
-      <c r="E519" s="13"/>
+      <c r="C519" s="12"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4">
@@ -8510,9 +8508,9 @@
       <c r="B520" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C520" s="13"/>
-      <c r="D520" s="13"/>
-      <c r="E520" s="13"/>
+      <c r="C520" s="12"/>
+      <c r="D520" s="12"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="4">
@@ -8521,9 +8519,9 @@
       <c r="B521" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C521" s="13"/>
-      <c r="D521" s="13"/>
-      <c r="E521" s="13"/>
+      <c r="C521" s="12"/>
+      <c r="D521" s="12"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="4">
@@ -8532,9 +8530,9 @@
       <c r="B522" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C522" s="13"/>
-      <c r="D522" s="13"/>
-      <c r="E522" s="13"/>
+      <c r="C522" s="12"/>
+      <c r="D522" s="12"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="4">
@@ -8543,9 +8541,9 @@
       <c r="B523" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C523" s="13"/>
-      <c r="D523" s="13"/>
-      <c r="E523" s="13"/>
+      <c r="C523" s="12"/>
+      <c r="D523" s="12"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4">
@@ -8554,9 +8552,9 @@
       <c r="B524" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C524" s="13"/>
-      <c r="D524" s="13"/>
-      <c r="E524" s="13"/>
+      <c r="C524" s="12"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="4">
@@ -8565,9 +8563,9 @@
       <c r="B525" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C525" s="13"/>
-      <c r="D525" s="13"/>
-      <c r="E525" s="13"/>
+      <c r="C525" s="12"/>
+      <c r="D525" s="12"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="4">
@@ -8576,9 +8574,9 @@
       <c r="B526" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C526" s="13"/>
-      <c r="D526" s="13"/>
-      <c r="E526" s="13"/>
+      <c r="C526" s="12"/>
+      <c r="D526" s="12"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="4">
@@ -8587,9 +8585,9 @@
       <c r="B527" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C527" s="13"/>
-      <c r="D527" s="13"/>
-      <c r="E527" s="13"/>
+      <c r="C527" s="12"/>
+      <c r="D527" s="12"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="4">
@@ -8598,9 +8596,9 @@
       <c r="B528" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C528" s="13"/>
-      <c r="D528" s="13"/>
-      <c r="E528" s="13"/>
+      <c r="C528" s="12"/>
+      <c r="D528" s="12"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="4">
@@ -8609,9 +8607,9 @@
       <c r="B529" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C529" s="13"/>
-      <c r="D529" s="13"/>
-      <c r="E529" s="13"/>
+      <c r="C529" s="11"/>
+      <c r="D529" s="11"/>
+      <c r="E529" s="11"/>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="4">
@@ -8620,9 +8618,9 @@
       <c r="B530" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C530" s="13"/>
-      <c r="D530" s="13"/>
-      <c r="E530" s="13"/>
+      <c r="C530" s="12"/>
+      <c r="D530" s="11"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="4">
@@ -8631,9 +8629,9 @@
       <c r="B531" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C531" s="13"/>
-      <c r="D531" s="13"/>
-      <c r="E531" s="13"/>
+      <c r="C531" s="12"/>
+      <c r="D531" s="12"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4">
@@ -8642,9 +8640,9 @@
       <c r="B532" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C532" s="13"/>
-      <c r="D532" s="13"/>
-      <c r="E532" s="13"/>
+      <c r="C532" s="12"/>
+      <c r="D532" s="12"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="4">
@@ -8653,9 +8651,9 @@
       <c r="B533" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C533" s="13"/>
-      <c r="D533" s="13"/>
-      <c r="E533" s="13"/>
+      <c r="C533" s="12"/>
+      <c r="D533" s="12"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="4">
@@ -8664,9 +8662,9 @@
       <c r="B534" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C534" s="13"/>
-      <c r="D534" s="13"/>
-      <c r="E534" s="13"/>
+      <c r="C534" s="12"/>
+      <c r="D534" s="12"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4">
@@ -8675,9 +8673,9 @@
       <c r="B535" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C535" s="13"/>
-      <c r="D535" s="13"/>
-      <c r="E535" s="13"/>
+      <c r="C535" s="12"/>
+      <c r="D535" s="12"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="4">
@@ -8686,9 +8684,9 @@
       <c r="B536" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C536" s="13"/>
-      <c r="D536" s="13"/>
-      <c r="E536" s="13"/>
+      <c r="C536" s="12"/>
+      <c r="D536" s="12"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="4">
@@ -8697,9 +8695,9 @@
       <c r="B537" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C537" s="13"/>
-      <c r="D537" s="13"/>
-      <c r="E537" s="13"/>
+      <c r="C537" s="12"/>
+      <c r="D537" s="12"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="4">
@@ -8708,20 +8706,20 @@
       <c r="B538" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C538" s="13"/>
-      <c r="D538" s="13"/>
-      <c r="E538" s="13"/>
+      <c r="C538" s="12"/>
+      <c r="D538" s="12"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4">
         <v>538</v>
       </c>
-      <c r="B539" s="15" t="s">
+      <c r="B539" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C539" s="13"/>
-      <c r="D539" s="13"/>
-      <c r="E539" s="13"/>
+      <c r="C539" s="12"/>
+      <c r="D539" s="12"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4">
@@ -8730,9 +8728,9 @@
       <c r="B540" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C540" s="13"/>
-      <c r="D540" s="13"/>
-      <c r="E540" s="13"/>
+      <c r="C540" s="12"/>
+      <c r="D540" s="12"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="4">
@@ -8741,9 +8739,9 @@
       <c r="B541" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C541" s="13"/>
-      <c r="D541" s="13"/>
-      <c r="E541" s="13"/>
+      <c r="C541" s="12"/>
+      <c r="D541" s="12"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="4">
@@ -8752,9 +8750,9 @@
       <c r="B542" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C542" s="13"/>
-      <c r="D542" s="13"/>
-      <c r="E542" s="13"/>
+      <c r="C542" s="12"/>
+      <c r="D542" s="12"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="4">
@@ -8763,9 +8761,9 @@
       <c r="B543" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C543" s="13"/>
-      <c r="D543" s="13"/>
-      <c r="E543" s="13"/>
+      <c r="C543" s="12"/>
+      <c r="D543" s="12"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4">
@@ -8774,9 +8772,9 @@
       <c r="B544" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C544" s="13"/>
-      <c r="D544" s="13"/>
-      <c r="E544" s="13"/>
+      <c r="C544" s="12"/>
+      <c r="D544" s="12"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="4">
@@ -8785,9 +8783,9 @@
       <c r="B545" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C545" s="13"/>
-      <c r="D545" s="13"/>
-      <c r="E545" s="13"/>
+      <c r="C545" s="12"/>
+      <c r="D545" s="12"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="4">
@@ -8796,9 +8794,9 @@
       <c r="B546" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C546" s="13"/>
-      <c r="D546" s="13"/>
-      <c r="E546" s="13"/>
+      <c r="C546" s="12"/>
+      <c r="D546" s="12"/>
+      <c r="E546" s="12"/>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="4">
@@ -8807,9 +8805,9 @@
       <c r="B547" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C547" s="13"/>
-      <c r="D547" s="13"/>
-      <c r="E547" s="13"/>
+      <c r="C547" s="12"/>
+      <c r="D547" s="12"/>
+      <c r="E547" s="12"/>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="4">
@@ -8818,9 +8816,9 @@
       <c r="B548" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C548" s="13"/>
-      <c r="D548" s="13"/>
-      <c r="E548" s="13"/>
+      <c r="C548" s="12"/>
+      <c r="D548" s="12"/>
+      <c r="E548" s="12"/>
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="4">
@@ -8829,9 +8827,9 @@
       <c r="B549" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C549" s="13"/>
-      <c r="D549" s="13"/>
-      <c r="E549" s="13"/>
+      <c r="C549" s="12"/>
+      <c r="D549" s="12"/>
+      <c r="E549" s="12"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="4">
@@ -8840,9 +8838,9 @@
       <c r="B550" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C550" s="13"/>
-      <c r="D550" s="13"/>
-      <c r="E550" s="13"/>
+      <c r="C550" s="12"/>
+      <c r="D550" s="12"/>
+      <c r="E550" s="12"/>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="4">
@@ -8851,9 +8849,9 @@
       <c r="B551" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C551" s="13"/>
-      <c r="D551" s="13"/>
-      <c r="E551" s="13"/>
+      <c r="C551" s="12"/>
+      <c r="D551" s="12"/>
+      <c r="E551" s="12"/>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4">
@@ -8862,9 +8860,9 @@
       <c r="B552" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C552" s="13"/>
-      <c r="D552" s="13"/>
-      <c r="E552" s="13"/>
+      <c r="C552" s="12"/>
+      <c r="D552" s="12"/>
+      <c r="E552" s="12"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="4">
@@ -8873,9 +8871,9 @@
       <c r="B553" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C553" s="13"/>
-      <c r="D553" s="13"/>
-      <c r="E553" s="13"/>
+      <c r="C553" s="12"/>
+      <c r="D553" s="12"/>
+      <c r="E553" s="12"/>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="4">
@@ -8884,9 +8882,9 @@
       <c r="B554" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C554" s="13"/>
-      <c r="D554" s="13"/>
-      <c r="E554" s="13"/>
+      <c r="C554" s="12"/>
+      <c r="D554" s="12"/>
+      <c r="E554" s="12"/>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="4">
@@ -8895,9 +8893,9 @@
       <c r="B555" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C555" s="13"/>
-      <c r="D555" s="13"/>
-      <c r="E555" s="13"/>
+      <c r="C555" s="12"/>
+      <c r="D555" s="12"/>
+      <c r="E555" s="12"/>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="4">
@@ -8906,9 +8904,9 @@
       <c r="B556" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C556" s="13"/>
-      <c r="D556" s="13"/>
-      <c r="E556" s="13"/>
+      <c r="C556" s="12"/>
+      <c r="D556" s="12"/>
+      <c r="E556" s="12"/>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="4">
@@ -8917,9 +8915,9 @@
       <c r="B557" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C557" s="13"/>
-      <c r="D557" s="13"/>
-      <c r="E557" s="13"/>
+      <c r="C557" s="12"/>
+      <c r="D557" s="12"/>
+      <c r="E557" s="12"/>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="4">
@@ -8928,9 +8926,9 @@
       <c r="B558" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C558" s="13"/>
-      <c r="D558" s="13"/>
-      <c r="E558" s="13"/>
+      <c r="C558" s="12"/>
+      <c r="D558" s="12"/>
+      <c r="E558" s="12"/>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="4">
@@ -8939,9 +8937,9 @@
       <c r="B559" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C559" s="13"/>
-      <c r="D559" s="13"/>
-      <c r="E559" s="13"/>
+      <c r="C559" s="12"/>
+      <c r="D559" s="12"/>
+      <c r="E559" s="12"/>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="4">
@@ -8950,9 +8948,9 @@
       <c r="B560" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C560" s="13"/>
-      <c r="D560" s="13"/>
-      <c r="E560" s="13"/>
+      <c r="C560" s="12"/>
+      <c r="D560" s="12"/>
+      <c r="E560" s="12"/>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="4">
@@ -8961,9 +8959,9 @@
       <c r="B561" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C561" s="13"/>
-      <c r="D561" s="13"/>
-      <c r="E561" s="13"/>
+      <c r="C561" s="12"/>
+      <c r="D561" s="12"/>
+      <c r="E561" s="12"/>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="4">
@@ -8972,9 +8970,9 @@
       <c r="B562" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C562" s="13"/>
-      <c r="D562" s="13"/>
-      <c r="E562" s="13"/>
+      <c r="C562" s="12"/>
+      <c r="D562" s="12"/>
+      <c r="E562" s="12"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="4">
@@ -8983,9 +8981,9 @@
       <c r="B563" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C563" s="13"/>
-      <c r="D563" s="13"/>
-      <c r="E563" s="13"/>
+      <c r="C563" s="12"/>
+      <c r="D563" s="12"/>
+      <c r="E563" s="12"/>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="4">
@@ -8994,9 +8992,9 @@
       <c r="B564" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C564" s="13"/>
-      <c r="D564" s="13"/>
-      <c r="E564" s="13"/>
+      <c r="C564" s="12"/>
+      <c r="D564" s="12"/>
+      <c r="E564" s="12"/>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="4">
@@ -9005,9 +9003,9 @@
       <c r="B565" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C565" s="13"/>
-      <c r="D565" s="13"/>
-      <c r="E565" s="13"/>
+      <c r="C565" s="12"/>
+      <c r="D565" s="12"/>
+      <c r="E565" s="12"/>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="4">
@@ -9016,9 +9014,9 @@
       <c r="B566" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C566" s="13"/>
-      <c r="D566" s="13"/>
-      <c r="E566" s="13"/>
+      <c r="C566" s="12"/>
+      <c r="D566" s="12"/>
+      <c r="E566" s="12"/>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="4">
@@ -9027,9 +9025,9 @@
       <c r="B567" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C567" s="13"/>
-      <c r="D567" s="13"/>
-      <c r="E567" s="13"/>
+      <c r="C567" s="12"/>
+      <c r="D567" s="12"/>
+      <c r="E567" s="12"/>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4">
@@ -9038,9 +9036,9 @@
       <c r="B568" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C568" s="13"/>
-      <c r="D568" s="13"/>
-      <c r="E568" s="13"/>
+      <c r="C568" s="12"/>
+      <c r="D568" s="12"/>
+      <c r="E568" s="12"/>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="4">
@@ -9049,9 +9047,9 @@
       <c r="B569" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C569" s="13"/>
-      <c r="D569" s="13"/>
-      <c r="E569" s="13"/>
+      <c r="C569" s="12"/>
+      <c r="D569" s="12"/>
+      <c r="E569" s="12"/>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="4">
@@ -9060,9 +9058,9 @@
       <c r="B570" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C570" s="13"/>
-      <c r="D570" s="13"/>
-      <c r="E570" s="13"/>
+      <c r="C570" s="12"/>
+      <c r="D570" s="12"/>
+      <c r="E570" s="12"/>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="4">
@@ -9071,9 +9069,9 @@
       <c r="B571" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C571" s="13"/>
-      <c r="D571" s="13"/>
-      <c r="E571" s="13"/>
+      <c r="C571" s="12"/>
+      <c r="D571" s="12"/>
+      <c r="E571" s="12"/>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="4">
@@ -9082,9 +9080,9 @@
       <c r="B572" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C572" s="13"/>
-      <c r="D572" s="13"/>
-      <c r="E572" s="13"/>
+      <c r="C572" s="12"/>
+      <c r="D572" s="12"/>
+      <c r="E572" s="12"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="4">
@@ -9093,9 +9091,9 @@
       <c r="B573" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C573" s="13"/>
-      <c r="D573" s="13"/>
-      <c r="E573" s="13"/>
+      <c r="C573" s="12"/>
+      <c r="D573" s="12"/>
+      <c r="E573" s="12"/>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="4">
@@ -9104,9 +9102,9 @@
       <c r="B574" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C574" s="13"/>
-      <c r="D574" s="13"/>
-      <c r="E574" s="13"/>
+      <c r="C574" s="12"/>
+      <c r="D574" s="12"/>
+      <c r="E574" s="12"/>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="4">
@@ -9115,9 +9113,9 @@
       <c r="B575" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C575" s="13"/>
-      <c r="D575" s="13"/>
-      <c r="E575" s="13"/>
+      <c r="C575" s="12"/>
+      <c r="D575" s="12"/>
+      <c r="E575" s="12"/>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="4">
@@ -9126,9 +9124,9 @@
       <c r="B576" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C576" s="13"/>
-      <c r="D576" s="13"/>
-      <c r="E576" s="13"/>
+      <c r="C576" s="12"/>
+      <c r="D576" s="12"/>
+      <c r="E576" s="12"/>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4">
@@ -9137,9 +9135,9 @@
       <c r="B577" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C577" s="13"/>
-      <c r="D577" s="13"/>
-      <c r="E577" s="13"/>
+      <c r="C577" s="12"/>
+      <c r="D577" s="12"/>
+      <c r="E577" s="12"/>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="4">
@@ -9148,9 +9146,9 @@
       <c r="B578" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C578" s="13"/>
-      <c r="D578" s="13"/>
-      <c r="E578" s="13"/>
+      <c r="C578" s="12"/>
+      <c r="D578" s="12"/>
+      <c r="E578" s="12"/>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="4">
@@ -9159,9 +9157,9 @@
       <c r="B579" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C579" s="13"/>
-      <c r="D579" s="13"/>
-      <c r="E579" s="13"/>
+      <c r="C579" s="12"/>
+      <c r="D579" s="12"/>
+      <c r="E579" s="12"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="4">
@@ -9170,9 +9168,9 @@
       <c r="B580" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C580" s="13"/>
-      <c r="D580" s="13"/>
-      <c r="E580" s="13"/>
+      <c r="C580" s="12"/>
+      <c r="D580" s="12"/>
+      <c r="E580" s="12"/>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="4">
@@ -9181,9 +9179,9 @@
       <c r="B581" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C581" s="13"/>
-      <c r="D581" s="13"/>
-      <c r="E581" s="13"/>
+      <c r="C581" s="12"/>
+      <c r="D581" s="12"/>
+      <c r="E581" s="12"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="4">
@@ -9192,9 +9190,9 @@
       <c r="B582" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C582" s="13"/>
-      <c r="D582" s="13"/>
-      <c r="E582" s="13"/>
+      <c r="C582" s="12"/>
+      <c r="D582" s="12"/>
+      <c r="E582" s="12"/>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="4">
@@ -9203,9 +9201,9 @@
       <c r="B583" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C583" s="13"/>
-      <c r="D583" s="13"/>
-      <c r="E583" s="13"/>
+      <c r="C583" s="12"/>
+      <c r="D583" s="12"/>
+      <c r="E583" s="12"/>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="4">
@@ -9214,11 +9212,14 @@
       <c r="B584" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C584" s="13"/>
-      <c r="D584" s="13"/>
-      <c r="E584" s="13"/>
+      <c r="C584" s="12"/>
+      <c r="D584" s="12"/>
+      <c r="E584" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E584">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9335,7 +9336,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -18371,7 +18372,7 @@
       <c r="A539" s="4">
         <v>538</v>
       </c>
-      <c r="B539" s="15" t="s">
+      <c r="B539" s="14" t="s">
         <v>530</v>
       </c>
       <c r="C539" t="s">

--- a/src/test/resources/excel/BuildigsList_1.xlsx
+++ b/src/test/resources/excel/BuildigsList_1.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="42" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="40" r:id="rId3"/>
+    <sheet name="sheet5" sheetId="43" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="40" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$584</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$E$584</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$E$584</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="581">
   <si>
     <t>Slno</t>
   </si>
@@ -1739,6 +1740,27 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>No</t>
@@ -1750,9 +1772,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1777,16 +1799,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1805,9 +1835,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1829,6 +1875,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1836,24 +1890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1869,21 +1907,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1898,21 +1929,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1941,7 +1963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,13 +1981,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,13 +2011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,25 +2029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,7 +2047,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,55 +2107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,25 +2131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,6 +2185,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2183,21 +2231,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2249,168 +2282,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2443,6 +2465,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -2804,15 +2829,15 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
@@ -2821,9 +2846,9 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
@@ -2832,9 +2857,9 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4">
@@ -2843,9 +2868,9 @@
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
@@ -2854,9 +2879,9 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4">
@@ -2865,9 +2890,9 @@
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4">
@@ -2876,9 +2901,9 @@
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4">
@@ -2887,9 +2912,9 @@
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4">
@@ -2898,9 +2923,9 @@
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4">
@@ -2909,9 +2934,9 @@
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4">
@@ -2920,9 +2945,9 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4">
@@ -2931,9 +2956,9 @@
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4">
@@ -2942,9 +2967,9 @@
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4">
@@ -2953,9 +2978,9 @@
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4">
@@ -2964,9 +2989,9 @@
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4">
@@ -2975,9 +3000,9 @@
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
@@ -2986,9 +3011,9 @@
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4">
@@ -2997,9 +3022,9 @@
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4">
@@ -3008,9 +3033,9 @@
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4">
@@ -3019,9 +3044,9 @@
       <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
@@ -3030,9 +3055,9 @@
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4">
@@ -3041,9 +3066,9 @@
       <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
@@ -3052,9 +3077,9 @@
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4">
@@ -3063,9 +3088,9 @@
       <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4">
@@ -3074,9 +3099,9 @@
       <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4">
@@ -3085,9 +3110,9 @@
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
@@ -3096,9 +3121,9 @@
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
@@ -3107,9 +3132,9 @@
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4">
@@ -3118,9 +3143,9 @@
       <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4">
@@ -3129,9 +3154,9 @@
       <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4">
@@ -3140,9 +3165,9 @@
       <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4">
@@ -3151,9 +3176,9 @@
       <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4">
@@ -3162,9 +3187,9 @@
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4">
@@ -3173,9 +3198,9 @@
       <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4">
@@ -3184,9 +3209,9 @@
       <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4">
@@ -3195,9 +3220,9 @@
       <c r="B37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4">
@@ -3206,9 +3231,9 @@
       <c r="B38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
@@ -3217,9 +3242,9 @@
       <c r="B39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
@@ -3228,9 +3253,9 @@
       <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
@@ -3239,9 +3264,9 @@
       <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
@@ -3250,9 +3275,9 @@
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
@@ -3261,9 +3286,9 @@
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
@@ -3272,9 +3297,9 @@
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
@@ -3283,9 +3308,9 @@
       <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
@@ -3294,9 +3319,9 @@
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
@@ -3305,9 +3330,9 @@
       <c r="B47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
@@ -3316,9 +3341,9 @@
       <c r="B48" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4">
@@ -3327,9 +3352,9 @@
       <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4">
@@ -3338,9 +3363,9 @@
       <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4">
@@ -3349,9 +3374,9 @@
       <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4">
@@ -3360,9 +3385,9 @@
       <c r="B52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
@@ -3371,9 +3396,9 @@
       <c r="B53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
@@ -3382,9 +3407,9 @@
       <c r="B54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
@@ -3393,9 +3418,9 @@
       <c r="B55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
@@ -3404,9 +3429,9 @@
       <c r="B56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
@@ -3415,9 +3440,9 @@
       <c r="B57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
@@ -3426,9 +3451,9 @@
       <c r="B58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
@@ -3437,9 +3462,9 @@
       <c r="B59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
@@ -3459,9 +3484,9 @@
       <c r="B61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4">
@@ -3470,9 +3495,9 @@
       <c r="B62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4">
@@ -3481,9 +3506,9 @@
       <c r="B63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
@@ -3492,9 +3517,9 @@
       <c r="B64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
@@ -3514,9 +3539,9 @@
       <c r="B66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="12"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
@@ -3525,9 +3550,9 @@
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
@@ -3536,9 +3561,9 @@
       <c r="B68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
@@ -3547,9 +3572,9 @@
       <c r="B69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
@@ -3558,9 +3583,9 @@
       <c r="B70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
@@ -3569,9 +3594,9 @@
       <c r="B71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4">
@@ -3580,9 +3605,9 @@
       <c r="B72" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4">
@@ -3591,9 +3616,9 @@
       <c r="B73" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
@@ -3602,9 +3627,9 @@
       <c r="B74" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
@@ -3613,9 +3638,9 @@
       <c r="B75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
@@ -3624,9 +3649,9 @@
       <c r="B76" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
@@ -3635,9 +3660,9 @@
       <c r="B77" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
@@ -3646,9 +3671,9 @@
       <c r="B78" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
@@ -3657,9 +3682,9 @@
       <c r="B79" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
@@ -3668,9 +3693,9 @@
       <c r="B80" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
@@ -3679,9 +3704,9 @@
       <c r="B81" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="4">
@@ -3690,9 +3715,9 @@
       <c r="B82" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="4">
@@ -3701,9 +3726,9 @@
       <c r="B83" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="4">
@@ -3712,9 +3737,9 @@
       <c r="B84" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="4">
@@ -3723,9 +3748,9 @@
       <c r="B85" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="4">
@@ -3734,9 +3759,9 @@
       <c r="B86" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="4">
@@ -3745,9 +3770,9 @@
       <c r="B87" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4">
@@ -3756,9 +3781,9 @@
       <c r="B88" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4">
@@ -3767,9 +3792,9 @@
       <c r="B89" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="4">
@@ -3778,9 +3803,9 @@
       <c r="B90" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="4">
@@ -3789,9 +3814,9 @@
       <c r="B91" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="4">
@@ -3800,9 +3825,9 @@
       <c r="B92" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="4">
@@ -3811,9 +3836,9 @@
       <c r="B93" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="4">
@@ -3822,9 +3847,9 @@
       <c r="B94" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="4">
@@ -3833,9 +3858,9 @@
       <c r="B95" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="4">
@@ -3844,9 +3869,9 @@
       <c r="B96" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="4">
@@ -3855,9 +3880,9 @@
       <c r="B97" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="4">
@@ -3866,9 +3891,9 @@
       <c r="B98" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4">
@@ -3877,9 +3902,9 @@
       <c r="B99" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="4">
@@ -3888,9 +3913,9 @@
       <c r="B100" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="4">
@@ -3899,9 +3924,9 @@
       <c r="B101" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="4">
@@ -3910,9 +3935,9 @@
       <c r="B102" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="4">
@@ -3921,9 +3946,9 @@
       <c r="B103" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="4">
@@ -3932,9 +3957,9 @@
       <c r="B104" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="4">
@@ -3943,9 +3968,9 @@
       <c r="B105" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="4">
@@ -3954,9 +3979,9 @@
       <c r="B106" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4">
@@ -3965,9 +3990,9 @@
       <c r="B107" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="4">
@@ -3976,9 +4001,9 @@
       <c r="B108" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="4">
@@ -3987,9 +4012,9 @@
       <c r="B109" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="4">
@@ -3998,9 +4023,9 @@
       <c r="B110" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="4">
@@ -4009,9 +4034,9 @@
       <c r="B111" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
@@ -4020,9 +4045,9 @@
       <c r="B112" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
@@ -4031,9 +4056,9 @@
       <c r="B113" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
@@ -4042,9 +4067,9 @@
       <c r="B114" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
@@ -4053,9 +4078,9 @@
       <c r="B115" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
@@ -4064,9 +4089,9 @@
       <c r="B116" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
@@ -4075,9 +4100,9 @@
       <c r="B117" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
@@ -4086,9 +4111,9 @@
       <c r="B118" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
@@ -4097,9 +4122,9 @@
       <c r="B119" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
@@ -4108,9 +4133,9 @@
       <c r="B120" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
@@ -4119,9 +4144,9 @@
       <c r="B121" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
@@ -4130,9 +4155,9 @@
       <c r="B122" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="4">
@@ -4141,9 +4166,9 @@
       <c r="B123" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="4">
@@ -4152,9 +4177,9 @@
       <c r="B124" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="4">
@@ -4163,9 +4188,9 @@
       <c r="B125" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4">
@@ -4174,9 +4199,9 @@
       <c r="B126" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="4">
@@ -4185,9 +4210,9 @@
       <c r="B127" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4">
@@ -4196,9 +4221,9 @@
       <c r="B128" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4">
@@ -4207,9 +4232,9 @@
       <c r="B129" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4">
@@ -4218,9 +4243,9 @@
       <c r="B130" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="4">
@@ -4229,9 +4254,9 @@
       <c r="B131" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4">
@@ -4240,9 +4265,9 @@
       <c r="B132" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4">
@@ -4251,9 +4276,9 @@
       <c r="B133" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="4">
@@ -4262,9 +4287,9 @@
       <c r="B134" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="4">
@@ -4273,9 +4298,9 @@
       <c r="B135" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="4">
@@ -4284,9 +4309,9 @@
       <c r="B136" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="4">
@@ -4295,9 +4320,9 @@
       <c r="B137" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4">
@@ -4306,9 +4331,9 @@
       <c r="B138" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="4">
@@ -4317,9 +4342,9 @@
       <c r="B139" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4">
@@ -4328,9 +4353,9 @@
       <c r="B140" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4">
@@ -4339,9 +4364,9 @@
       <c r="B141" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4">
@@ -4350,9 +4375,9 @@
       <c r="B142" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="4">
@@ -4361,9 +4386,9 @@
       <c r="B143" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4">
@@ -4372,9 +4397,9 @@
       <c r="B144" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="13"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4">
@@ -4383,9 +4408,9 @@
       <c r="B145" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="4">
@@ -4394,9 +4419,9 @@
       <c r="B146" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="4">
@@ -4405,9 +4430,9 @@
       <c r="B147" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="4">
@@ -4416,9 +4441,9 @@
       <c r="B148" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4">
@@ -4427,9 +4452,9 @@
       <c r="B149" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4">
@@ -4438,9 +4463,9 @@
       <c r="B150" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4">
@@ -4449,9 +4474,9 @@
       <c r="B151" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4">
@@ -4460,9 +4485,9 @@
       <c r="B152" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4">
@@ -4471,9 +4496,9 @@
       <c r="B153" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="13"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4">
@@ -4482,9 +4507,9 @@
       <c r="B154" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4">
@@ -4493,9 +4518,9 @@
       <c r="B155" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4">
@@ -4504,9 +4529,9 @@
       <c r="B156" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4">
@@ -4515,9 +4540,9 @@
       <c r="B157" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4">
@@ -4526,9 +4551,9 @@
       <c r="B158" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4">
@@ -4537,9 +4562,9 @@
       <c r="B159" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4">
@@ -4548,9 +4573,9 @@
       <c r="B160" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4">
@@ -4559,9 +4584,9 @@
       <c r="B161" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="4">
@@ -4570,9 +4595,9 @@
       <c r="B162" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4">
@@ -4581,9 +4606,9 @@
       <c r="B163" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4">
@@ -4603,9 +4628,9 @@
       <c r="B165" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C165" s="12"/>
+      <c r="C165" s="13"/>
       <c r="D165" s="11"/>
-      <c r="E165" s="12"/>
+      <c r="E165" s="13"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4">
@@ -4614,9 +4639,9 @@
       <c r="B166" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4">
@@ -4625,9 +4650,9 @@
       <c r="B167" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="13"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="4">
@@ -4636,9 +4661,9 @@
       <c r="B168" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="4">
@@ -4647,9 +4672,9 @@
       <c r="B169" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4">
@@ -4658,9 +4683,9 @@
       <c r="B170" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="4">
@@ -4669,9 +4694,9 @@
       <c r="B171" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-      <c r="E171" s="12"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="4">
@@ -4680,9 +4705,9 @@
       <c r="B172" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-      <c r="E172" s="12"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4">
@@ -4691,9 +4716,9 @@
       <c r="B173" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-      <c r="E173" s="12"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="13"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4">
@@ -4702,9 +4727,9 @@
       <c r="B174" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4">
@@ -4713,9 +4738,9 @@
       <c r="B175" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="12"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="13"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4">
@@ -4724,9 +4749,9 @@
       <c r="B176" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="12"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="13"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4">
@@ -4735,9 +4760,9 @@
       <c r="B177" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4">
@@ -4746,9 +4771,9 @@
       <c r="B178" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4">
@@ -4757,9 +4782,9 @@
       <c r="B179" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4">
@@ -4768,9 +4793,9 @@
       <c r="B180" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="12"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4">
@@ -4779,9 +4804,9 @@
       <c r="B181" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="13"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4">
@@ -4790,9 +4815,9 @@
       <c r="B182" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="12"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="13"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4">
@@ -4801,9 +4826,9 @@
       <c r="B183" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4">
@@ -4812,9 +4837,9 @@
       <c r="B184" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4">
@@ -4823,9 +4848,9 @@
       <c r="B185" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
-      <c r="E185" s="12"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4">
@@ -4834,9 +4859,9 @@
       <c r="B186" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4">
@@ -4856,9 +4881,9 @@
       <c r="B188" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="12"/>
+      <c r="C188" s="13"/>
       <c r="D188" s="11"/>
-      <c r="E188" s="12"/>
+      <c r="E188" s="13"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4">
@@ -4867,9 +4892,9 @@
       <c r="B189" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4">
@@ -4878,9 +4903,9 @@
       <c r="B190" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="12"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4">
@@ -4889,9 +4914,9 @@
       <c r="B191" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4">
@@ -4900,9 +4925,9 @@
       <c r="B192" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4">
@@ -4911,9 +4936,9 @@
       <c r="B193" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4">
@@ -4922,9 +4947,9 @@
       <c r="B194" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="13"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4">
@@ -4933,9 +4958,9 @@
       <c r="B195" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4">
@@ -4944,9 +4969,9 @@
       <c r="B196" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4">
@@ -4955,9 +4980,9 @@
       <c r="B197" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="13"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4">
@@ -4966,9 +4991,9 @@
       <c r="B198" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4">
@@ -4977,9 +5002,9 @@
       <c r="B199" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4">
@@ -4988,9 +5013,9 @@
       <c r="B200" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4">
@@ -4999,9 +5024,9 @@
       <c r="B201" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4">
@@ -5010,9 +5035,9 @@
       <c r="B202" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4">
@@ -5021,9 +5046,9 @@
       <c r="B203" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4">
@@ -5032,9 +5057,9 @@
       <c r="B204" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="13"/>
+      <c r="E204" s="13"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="4">
@@ -5043,9 +5068,9 @@
       <c r="B205" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="4">
@@ -5054,9 +5079,9 @@
       <c r="B206" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="4">
@@ -5065,9 +5090,9 @@
       <c r="B207" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4">
@@ -5076,9 +5101,9 @@
       <c r="B208" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4">
@@ -5087,9 +5112,9 @@
       <c r="B209" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4">
@@ -5098,9 +5123,9 @@
       <c r="B210" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4">
@@ -5109,9 +5134,9 @@
       <c r="B211" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="4">
@@ -5120,9 +5145,9 @@
       <c r="B212" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="4">
@@ -5131,9 +5156,9 @@
       <c r="B213" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="13"/>
+      <c r="E213" s="13"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="4">
@@ -5142,9 +5167,9 @@
       <c r="B214" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="4">
@@ -5153,9 +5178,9 @@
       <c r="B215" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="4">
@@ -5164,9 +5189,9 @@
       <c r="B216" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="4">
@@ -5175,9 +5200,9 @@
       <c r="B217" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="4">
@@ -5186,9 +5211,9 @@
       <c r="B218" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="4">
@@ -5197,9 +5222,9 @@
       <c r="B219" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="4">
@@ -5208,9 +5233,9 @@
       <c r="B220" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="4">
@@ -5219,9 +5244,9 @@
       <c r="B221" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="4">
@@ -5230,9 +5255,9 @@
       <c r="B222" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="4">
@@ -5241,9 +5266,9 @@
       <c r="B223" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="4">
@@ -5252,9 +5277,9 @@
       <c r="B224" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="4">
@@ -5263,9 +5288,9 @@
       <c r="B225" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="4">
@@ -5274,9 +5299,9 @@
       <c r="B226" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="4">
@@ -5285,9 +5310,9 @@
       <c r="B227" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="4">
@@ -5296,9 +5321,9 @@
       <c r="B228" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="4">
@@ -5307,9 +5332,9 @@
       <c r="B229" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="4">
@@ -5318,9 +5343,9 @@
       <c r="B230" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="4">
@@ -5329,9 +5354,9 @@
       <c r="B231" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="4">
@@ -5340,9 +5365,9 @@
       <c r="B232" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="4">
@@ -5351,9 +5376,9 @@
       <c r="B233" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="4">
@@ -5362,9 +5387,9 @@
       <c r="B234" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="4">
@@ -5373,9 +5398,9 @@
       <c r="B235" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="4">
@@ -5384,9 +5409,9 @@
       <c r="B236" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="4">
@@ -5395,9 +5420,9 @@
       <c r="B237" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="4">
@@ -5406,9 +5431,9 @@
       <c r="B238" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="4">
@@ -5417,9 +5442,9 @@
       <c r="B239" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4">
@@ -5428,9 +5453,9 @@
       <c r="B240" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4">
@@ -5439,9 +5464,9 @@
       <c r="B241" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4">
@@ -5450,9 +5475,9 @@
       <c r="B242" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4">
@@ -5461,9 +5486,9 @@
       <c r="B243" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4">
@@ -5472,9 +5497,9 @@
       <c r="B244" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4">
@@ -5483,9 +5508,9 @@
       <c r="B245" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4">
@@ -5494,9 +5519,9 @@
       <c r="B246" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4">
@@ -5505,9 +5530,9 @@
       <c r="B247" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C247" s="12"/>
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4">
@@ -5516,9 +5541,9 @@
       <c r="B248" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="4">
@@ -5527,9 +5552,9 @@
       <c r="B249" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="4">
@@ -5538,9 +5563,9 @@
       <c r="B250" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4">
@@ -5549,9 +5574,9 @@
       <c r="B251" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4">
@@ -5560,9 +5585,9 @@
       <c r="B252" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4">
@@ -5571,9 +5596,9 @@
       <c r="B253" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4">
@@ -5582,9 +5607,9 @@
       <c r="B254" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4">
@@ -5593,9 +5618,9 @@
       <c r="B255" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4">
@@ -5604,9 +5629,9 @@
       <c r="B256" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4">
@@ -5615,9 +5640,9 @@
       <c r="B257" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4">
@@ -5626,9 +5651,9 @@
       <c r="B258" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C258" s="12"/>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4">
@@ -5637,9 +5662,9 @@
       <c r="B259" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4">
@@ -5648,9 +5673,9 @@
       <c r="B260" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4">
@@ -5659,9 +5684,9 @@
       <c r="B261" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="4">
@@ -5670,9 +5695,9 @@
       <c r="B262" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="12"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="4">
@@ -5681,9 +5706,9 @@
       <c r="B263" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
-      <c r="E263" s="12"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="4">
@@ -5692,9 +5717,9 @@
       <c r="B264" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C264" s="12"/>
-      <c r="D264" s="12"/>
-      <c r="E264" s="12"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="4">
@@ -5703,9 +5728,9 @@
       <c r="B265" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
-      <c r="E265" s="12"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="4">
@@ -5714,9 +5739,9 @@
       <c r="B266" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
-      <c r="E266" s="12"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="4">
@@ -5725,9 +5750,9 @@
       <c r="B267" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
-      <c r="E267" s="12"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="4">
@@ -5736,9 +5761,9 @@
       <c r="B268" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
-      <c r="E268" s="12"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="4">
@@ -5747,9 +5772,9 @@
       <c r="B269" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="4">
@@ -5758,9 +5783,9 @@
       <c r="B270" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
-      <c r="E270" s="12"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="4">
@@ -5769,9 +5794,9 @@
       <c r="B271" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
-      <c r="E271" s="12"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="4">
@@ -5780,9 +5805,9 @@
       <c r="B272" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
-      <c r="E272" s="12"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="4">
@@ -5791,9 +5816,9 @@
       <c r="B273" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C273" s="12"/>
-      <c r="D273" s="12"/>
-      <c r="E273" s="12"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="4">
@@ -5802,9 +5827,9 @@
       <c r="B274" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
-      <c r="E274" s="12"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="4">
@@ -5813,9 +5838,9 @@
       <c r="B275" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
-      <c r="E275" s="12"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="4">
@@ -5824,9 +5849,9 @@
       <c r="B276" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="4">
@@ -5835,9 +5860,9 @@
       <c r="B277" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="12"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="13"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="4">
@@ -5846,9 +5871,9 @@
       <c r="B278" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="4">
@@ -5868,9 +5893,9 @@
       <c r="B280" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C280" s="12"/>
+      <c r="C280" s="13"/>
       <c r="D280" s="11"/>
-      <c r="E280" s="12"/>
+      <c r="E280" s="13"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="4">
@@ -5879,9 +5904,9 @@
       <c r="B281" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="4">
@@ -5890,9 +5915,9 @@
       <c r="B282" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
-      <c r="E282" s="12"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="4">
@@ -5901,9 +5926,9 @@
       <c r="B283" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="13"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="4">
@@ -5912,9 +5937,9 @@
       <c r="B284" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
-      <c r="E284" s="12"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="4">
@@ -5923,9 +5948,9 @@
       <c r="B285" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
-      <c r="E285" s="12"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="13"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="4">
@@ -5934,9 +5959,9 @@
       <c r="B286" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
-      <c r="E286" s="12"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="4">
@@ -5945,9 +5970,9 @@
       <c r="B287" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C287" s="12"/>
-      <c r="D287" s="12"/>
-      <c r="E287" s="12"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="4">
@@ -5956,9 +5981,9 @@
       <c r="B288" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="4">
@@ -5967,9 +5992,9 @@
       <c r="B289" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
-      <c r="E289" s="12"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="4">
@@ -5978,9 +6003,9 @@
       <c r="B290" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C290" s="12"/>
-      <c r="D290" s="12"/>
-      <c r="E290" s="12"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="4">
@@ -5989,9 +6014,9 @@
       <c r="B291" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C291" s="12"/>
-      <c r="D291" s="12"/>
-      <c r="E291" s="12"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="4">
@@ -6000,9 +6025,9 @@
       <c r="B292" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C292" s="12"/>
-      <c r="D292" s="12"/>
-      <c r="E292" s="12"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="4">
@@ -6011,9 +6036,9 @@
       <c r="B293" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C293" s="12"/>
-      <c r="D293" s="12"/>
-      <c r="E293" s="12"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="13"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="4">
@@ -6022,9 +6047,9 @@
       <c r="B294" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
-      <c r="E294" s="12"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="4">
@@ -6033,9 +6058,9 @@
       <c r="B295" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C295" s="12"/>
-      <c r="D295" s="12"/>
-      <c r="E295" s="12"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="4">
@@ -6044,9 +6069,9 @@
       <c r="B296" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C296" s="12"/>
-      <c r="D296" s="12"/>
-      <c r="E296" s="12"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="4">
@@ -6055,9 +6080,9 @@
       <c r="B297" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
-      <c r="E297" s="12"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="4">
@@ -6066,9 +6091,9 @@
       <c r="B298" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C298" s="12"/>
-      <c r="D298" s="12"/>
-      <c r="E298" s="12"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="4">
@@ -6077,9 +6102,9 @@
       <c r="B299" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C299" s="12"/>
-      <c r="D299" s="12"/>
-      <c r="E299" s="12"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="13"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="4">
@@ -6088,9 +6113,9 @@
       <c r="B300" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4">
@@ -6099,9 +6124,9 @@
       <c r="B301" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C301" s="12"/>
-      <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="4">
@@ -6110,9 +6135,9 @@
       <c r="B302" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C302" s="12"/>
-      <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="4">
@@ -6121,9 +6146,9 @@
       <c r="B303" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C303" s="12"/>
-      <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="4">
@@ -6132,9 +6157,9 @@
       <c r="B304" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="4">
@@ -6143,9 +6168,9 @@
       <c r="B305" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C305" s="12"/>
-      <c r="D305" s="12"/>
-      <c r="E305" s="12"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="4">
@@ -6154,9 +6179,9 @@
       <c r="B306" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C306" s="12"/>
-      <c r="D306" s="12"/>
-      <c r="E306" s="12"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="4">
@@ -6165,9 +6190,9 @@
       <c r="B307" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C307" s="12"/>
-      <c r="D307" s="12"/>
-      <c r="E307" s="12"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="4">
@@ -6187,9 +6212,9 @@
       <c r="B309" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C309" s="12"/>
+      <c r="C309" s="13"/>
       <c r="D309" s="11"/>
-      <c r="E309" s="12"/>
+      <c r="E309" s="13"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="4">
@@ -6198,9 +6223,9 @@
       <c r="B310" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
-      <c r="E310" s="12"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="4">
@@ -6209,9 +6234,9 @@
       <c r="B311" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="4">
@@ -6220,9 +6245,9 @@
       <c r="B312" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C312" s="12"/>
-      <c r="D312" s="12"/>
-      <c r="E312" s="12"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="4">
@@ -6231,9 +6256,9 @@
       <c r="B313" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C313" s="12"/>
-      <c r="D313" s="12"/>
-      <c r="E313" s="12"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="4">
@@ -6242,9 +6267,9 @@
       <c r="B314" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C314" s="12"/>
-      <c r="D314" s="12"/>
-      <c r="E314" s="12"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="4">
@@ -6253,9 +6278,9 @@
       <c r="B315" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C315" s="12"/>
-      <c r="D315" s="12"/>
-      <c r="E315" s="12"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="4">
@@ -6264,9 +6289,9 @@
       <c r="B316" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C316" s="12"/>
-      <c r="D316" s="12"/>
-      <c r="E316" s="12"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="4">
@@ -6275,9 +6300,9 @@
       <c r="B317" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C317" s="12"/>
-      <c r="D317" s="12"/>
-      <c r="E317" s="12"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="4">
@@ -6286,9 +6311,9 @@
       <c r="B318" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C318" s="12"/>
-      <c r="D318" s="12"/>
-      <c r="E318" s="12"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="4">
@@ -6297,9 +6322,9 @@
       <c r="B319" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C319" s="12"/>
-      <c r="D319" s="12"/>
-      <c r="E319" s="12"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="4">
@@ -6308,9 +6333,9 @@
       <c r="B320" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C320" s="12"/>
-      <c r="D320" s="12"/>
-      <c r="E320" s="12"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="4">
@@ -6319,9 +6344,9 @@
       <c r="B321" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C321" s="12"/>
-      <c r="D321" s="12"/>
-      <c r="E321" s="12"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="4">
@@ -6330,9 +6355,9 @@
       <c r="B322" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C322" s="12"/>
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="13"/>
+      <c r="E322" s="13"/>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="4">
@@ -6341,9 +6366,9 @@
       <c r="B323" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C323" s="12"/>
-      <c r="D323" s="12"/>
-      <c r="E323" s="12"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="13"/>
+      <c r="E323" s="13"/>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="4">
@@ -6352,9 +6377,9 @@
       <c r="B324" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
-      <c r="E324" s="12"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="13"/>
+      <c r="E324" s="13"/>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="4">
@@ -6363,9 +6388,9 @@
       <c r="B325" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="12"/>
-      <c r="D325" s="12"/>
-      <c r="E325" s="12"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="13"/>
+      <c r="E325" s="13"/>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="4">
@@ -6374,9 +6399,9 @@
       <c r="B326" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C326" s="12"/>
-      <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="4">
@@ -6385,9 +6410,9 @@
       <c r="B327" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="12"/>
-      <c r="D327" s="12"/>
-      <c r="E327" s="12"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="4">
@@ -6396,9 +6421,9 @@
       <c r="B328" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C328" s="12"/>
-      <c r="D328" s="12"/>
-      <c r="E328" s="12"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="4">
@@ -6407,9 +6432,9 @@
       <c r="B329" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C329" s="12"/>
-      <c r="D329" s="12"/>
-      <c r="E329" s="12"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="4">
@@ -6418,9 +6443,9 @@
       <c r="B330" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C330" s="12"/>
-      <c r="D330" s="12"/>
-      <c r="E330" s="12"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="13"/>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="4">
@@ -6429,9 +6454,9 @@
       <c r="B331" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C331" s="12"/>
-      <c r="D331" s="12"/>
-      <c r="E331" s="12"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="4">
@@ -6440,9 +6465,9 @@
       <c r="B332" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="4">
@@ -6451,9 +6476,9 @@
       <c r="B333" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="4">
@@ -6462,9 +6487,9 @@
       <c r="B334" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
-      <c r="E334" s="12"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="4">
@@ -6473,9 +6498,9 @@
       <c r="B335" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
-      <c r="E335" s="12"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="4">
@@ -6484,9 +6509,9 @@
       <c r="B336" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C336" s="12"/>
-      <c r="D336" s="12"/>
-      <c r="E336" s="12"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="4">
@@ -6495,9 +6520,9 @@
       <c r="B337" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C337" s="12"/>
-      <c r="D337" s="12"/>
-      <c r="E337" s="12"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="4">
@@ -6506,9 +6531,9 @@
       <c r="B338" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
-      <c r="E338" s="12"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="4">
@@ -6517,9 +6542,9 @@
       <c r="B339" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
-      <c r="E339" s="12"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="4">
@@ -6528,9 +6553,9 @@
       <c r="B340" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C340" s="12"/>
-      <c r="D340" s="12"/>
-      <c r="E340" s="12"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="4">
@@ -6539,9 +6564,9 @@
       <c r="B341" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C341" s="12"/>
-      <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="4">
@@ -6550,9 +6575,9 @@
       <c r="B342" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C342" s="12"/>
-      <c r="D342" s="12"/>
-      <c r="E342" s="12"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="4">
@@ -6561,9 +6586,9 @@
       <c r="B343" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C343" s="12"/>
-      <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="4">
@@ -6572,9 +6597,9 @@
       <c r="B344" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C344" s="12"/>
-      <c r="D344" s="12"/>
-      <c r="E344" s="12"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="4">
@@ -6583,9 +6608,9 @@
       <c r="B345" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C345" s="12"/>
-      <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="4">
@@ -6594,9 +6619,9 @@
       <c r="B346" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C346" s="12"/>
-      <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="4">
@@ -6605,9 +6630,9 @@
       <c r="B347" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C347" s="12"/>
-      <c r="D347" s="12"/>
-      <c r="E347" s="12"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="4">
@@ -6616,9 +6641,9 @@
       <c r="B348" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C348" s="12"/>
-      <c r="D348" s="12"/>
-      <c r="E348" s="12"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="4">
@@ -6627,9 +6652,9 @@
       <c r="B349" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C349" s="12"/>
-      <c r="D349" s="12"/>
-      <c r="E349" s="12"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="13"/>
+      <c r="E349" s="13"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="4">
@@ -6638,9 +6663,9 @@
       <c r="B350" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="12"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="13"/>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="4">
@@ -6649,9 +6674,9 @@
       <c r="B351" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C351" s="12"/>
-      <c r="D351" s="12"/>
-      <c r="E351" s="12"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="4">
@@ -6660,9 +6685,9 @@
       <c r="B352" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
-      <c r="E352" s="12"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="4">
@@ -6671,9 +6696,9 @@
       <c r="B353" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
-      <c r="E353" s="12"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="4">
@@ -6682,9 +6707,9 @@
       <c r="B354" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
-      <c r="E354" s="12"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="4">
@@ -6693,9 +6718,9 @@
       <c r="B355" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
-      <c r="E355" s="12"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="4">
@@ -6704,9 +6729,9 @@
       <c r="B356" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
-      <c r="E356" s="12"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="4">
@@ -6715,9 +6740,9 @@
       <c r="B357" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
-      <c r="E357" s="12"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="4">
@@ -6726,9 +6751,9 @@
       <c r="B358" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
-      <c r="E358" s="12"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="4">
@@ -6737,9 +6762,9 @@
       <c r="B359" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
-      <c r="E359" s="12"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="13"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="4">
@@ -6748,9 +6773,9 @@
       <c r="B360" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="13"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="4">
@@ -6759,9 +6784,9 @@
       <c r="B361" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C361" s="12"/>
-      <c r="D361" s="12"/>
-      <c r="E361" s="12"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="4">
@@ -6770,9 +6795,9 @@
       <c r="B362" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C362" s="12"/>
-      <c r="D362" s="12"/>
-      <c r="E362" s="12"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="4">
@@ -6781,9 +6806,9 @@
       <c r="B363" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
-      <c r="E363" s="12"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="13"/>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="4">
@@ -6792,9 +6817,9 @@
       <c r="B364" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C364" s="12"/>
-      <c r="D364" s="12"/>
-      <c r="E364" s="12"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="13"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="4">
@@ -6803,9 +6828,9 @@
       <c r="B365" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
-      <c r="E365" s="12"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="13"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="4">
@@ -6814,9 +6839,9 @@
       <c r="B366" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="13"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="4">
@@ -6825,9 +6850,9 @@
       <c r="B367" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C367" s="12"/>
-      <c r="D367" s="12"/>
-      <c r="E367" s="12"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="13"/>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="4">
@@ -6836,9 +6861,9 @@
       <c r="B368" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C368" s="12"/>
-      <c r="D368" s="12"/>
-      <c r="E368" s="12"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="13"/>
+      <c r="E368" s="13"/>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="4">
@@ -6847,9 +6872,9 @@
       <c r="B369" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
-      <c r="E369" s="12"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="13"/>
+      <c r="E369" s="13"/>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4">
@@ -6858,9 +6883,9 @@
       <c r="B370" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
-      <c r="E370" s="12"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="13"/>
+      <c r="E370" s="13"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="4">
@@ -6869,9 +6894,9 @@
       <c r="B371" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
-      <c r="E371" s="12"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="13"/>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="4">
@@ -6880,9 +6905,9 @@
       <c r="B372" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
-      <c r="E372" s="12"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="13"/>
+      <c r="E372" s="13"/>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="4">
@@ -6891,9 +6916,9 @@
       <c r="B373" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C373" s="12"/>
-      <c r="D373" s="12"/>
-      <c r="E373" s="12"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="13"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="4">
@@ -6902,9 +6927,9 @@
       <c r="B374" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
-      <c r="E374" s="12"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="13"/>
+      <c r="E374" s="13"/>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="4">
@@ -6913,9 +6938,9 @@
       <c r="B375" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C375" s="12"/>
-      <c r="D375" s="12"/>
-      <c r="E375" s="12"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="13"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4">
@@ -6924,9 +6949,9 @@
       <c r="B376" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="13"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="4">
@@ -6935,9 +6960,9 @@
       <c r="B377" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C377" s="12"/>
-      <c r="D377" s="12"/>
-      <c r="E377" s="12"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="4">
@@ -6946,9 +6971,9 @@
       <c r="B378" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C378" s="12"/>
-      <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="13"/>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="4">
@@ -6957,9 +6982,9 @@
       <c r="B379" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C379" s="12"/>
-      <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="13"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="4">
@@ -6968,9 +6993,9 @@
       <c r="B380" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="13"/>
+      <c r="E380" s="13"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="4">
@@ -6979,9 +7004,9 @@
       <c r="B381" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C381" s="12"/>
-      <c r="D381" s="12"/>
-      <c r="E381" s="12"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="13"/>
+      <c r="E381" s="13"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="4">
@@ -6990,9 +7015,9 @@
       <c r="B382" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C382" s="12"/>
-      <c r="D382" s="12"/>
-      <c r="E382" s="12"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="13"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="4">
@@ -7001,9 +7026,9 @@
       <c r="B383" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="13"/>
+      <c r="E383" s="13"/>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="4">
@@ -7012,9 +7037,9 @@
       <c r="B384" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C384" s="12"/>
-      <c r="D384" s="12"/>
-      <c r="E384" s="12"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="13"/>
+      <c r="E384" s="13"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="4">
@@ -7023,9 +7048,9 @@
       <c r="B385" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C385" s="12"/>
-      <c r="D385" s="12"/>
-      <c r="E385" s="12"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="13"/>
+      <c r="E385" s="13"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4">
@@ -7034,9 +7059,9 @@
       <c r="B386" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C386" s="12"/>
-      <c r="D386" s="12"/>
-      <c r="E386" s="12"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="13"/>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4">
@@ -7045,9 +7070,9 @@
       <c r="B387" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C387" s="12"/>
-      <c r="D387" s="12"/>
-      <c r="E387" s="12"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="13"/>
+      <c r="E387" s="13"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="4">
@@ -7056,9 +7081,9 @@
       <c r="B388" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C388" s="12"/>
-      <c r="D388" s="12"/>
-      <c r="E388" s="12"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="13"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="4">
@@ -7067,9 +7092,9 @@
       <c r="B389" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C389" s="12"/>
-      <c r="D389" s="12"/>
-      <c r="E389" s="12"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="13"/>
+      <c r="E389" s="13"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="4">
@@ -7078,9 +7103,9 @@
       <c r="B390" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C390" s="12"/>
-      <c r="D390" s="12"/>
-      <c r="E390" s="12"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="13"/>
+      <c r="E390" s="13"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="4">
@@ -7089,9 +7114,9 @@
       <c r="B391" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C391" s="12"/>
-      <c r="D391" s="12"/>
-      <c r="E391" s="12"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="13"/>
+      <c r="E391" s="13"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="4">
@@ -7100,9 +7125,9 @@
       <c r="B392" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C392" s="12"/>
-      <c r="D392" s="12"/>
-      <c r="E392" s="12"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="13"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4">
@@ -7111,9 +7136,9 @@
       <c r="B393" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C393" s="12"/>
-      <c r="D393" s="12"/>
-      <c r="E393" s="12"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="13"/>
+      <c r="E393" s="13"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="4">
@@ -7122,9 +7147,9 @@
       <c r="B394" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C394" s="12"/>
-      <c r="D394" s="12"/>
-      <c r="E394" s="12"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="13"/>
+      <c r="E394" s="13"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="4">
@@ -7133,9 +7158,9 @@
       <c r="B395" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C395" s="12"/>
-      <c r="D395" s="12"/>
-      <c r="E395" s="12"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="13"/>
+      <c r="E395" s="13"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="4">
@@ -7144,9 +7169,9 @@
       <c r="B396" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C396" s="12"/>
-      <c r="D396" s="12"/>
-      <c r="E396" s="12"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="13"/>
+      <c r="E396" s="13"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="4">
@@ -7155,9 +7180,9 @@
       <c r="B397" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C397" s="12"/>
-      <c r="D397" s="12"/>
-      <c r="E397" s="12"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="13"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="4">
@@ -7166,9 +7191,9 @@
       <c r="B398" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C398" s="12"/>
-      <c r="D398" s="12"/>
-      <c r="E398" s="12"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="13"/>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="4">
@@ -7177,9 +7202,9 @@
       <c r="B399" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C399" s="12"/>
-      <c r="D399" s="12"/>
-      <c r="E399" s="12"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="13"/>
+      <c r="E399" s="13"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="4">
@@ -7199,9 +7224,9 @@
       <c r="B401" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C401" s="12"/>
+      <c r="C401" s="13"/>
       <c r="D401" s="11"/>
-      <c r="E401" s="12"/>
+      <c r="E401" s="13"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="4">
@@ -7210,9 +7235,9 @@
       <c r="B402" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C402" s="12"/>
-      <c r="D402" s="12"/>
-      <c r="E402" s="12"/>
+      <c r="C402" s="13"/>
+      <c r="D402" s="13"/>
+      <c r="E402" s="13"/>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="4">
@@ -7221,9 +7246,9 @@
       <c r="B403" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-      <c r="E403" s="12"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="13"/>
+      <c r="E403" s="13"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="4">
@@ -7232,9 +7257,9 @@
       <c r="B404" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="13"/>
+      <c r="E404" s="13"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="4">
@@ -7243,9 +7268,9 @@
       <c r="B405" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C405" s="12"/>
-      <c r="D405" s="12"/>
-      <c r="E405" s="12"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
+      <c r="E405" s="13"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="4">
@@ -7254,9 +7279,9 @@
       <c r="B406" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C406" s="12"/>
-      <c r="D406" s="12"/>
-      <c r="E406" s="12"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="13"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="4">
@@ -7265,9 +7290,9 @@
       <c r="B407" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C407" s="12"/>
-      <c r="D407" s="12"/>
-      <c r="E407" s="12"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="13"/>
+      <c r="E407" s="13"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="4">
@@ -7276,9 +7301,9 @@
       <c r="B408" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C408" s="12"/>
-      <c r="D408" s="12"/>
-      <c r="E408" s="12"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="4">
@@ -7287,9 +7312,9 @@
       <c r="B409" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C409" s="12"/>
-      <c r="D409" s="12"/>
-      <c r="E409" s="12"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="13"/>
+      <c r="E409" s="13"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="4">
@@ -7298,9 +7323,9 @@
       <c r="B410" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C410" s="12"/>
-      <c r="D410" s="12"/>
-      <c r="E410" s="12"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="13"/>
+      <c r="E410" s="13"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="4">
@@ -7309,9 +7334,9 @@
       <c r="B411" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C411" s="12"/>
-      <c r="D411" s="12"/>
-      <c r="E411" s="12"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="13"/>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="4">
@@ -7320,9 +7345,9 @@
       <c r="B412" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C412" s="12"/>
-      <c r="D412" s="12"/>
-      <c r="E412" s="12"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="13"/>
+      <c r="E412" s="13"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="4">
@@ -7331,9 +7356,9 @@
       <c r="B413" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C413" s="12"/>
-      <c r="D413" s="12"/>
-      <c r="E413" s="12"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="13"/>
+      <c r="E413" s="13"/>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="4">
@@ -7342,9 +7367,9 @@
       <c r="B414" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C414" s="12"/>
-      <c r="D414" s="12"/>
-      <c r="E414" s="12"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
+      <c r="E414" s="13"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="4">
@@ -7353,9 +7378,9 @@
       <c r="B415" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C415" s="12"/>
-      <c r="D415" s="12"/>
-      <c r="E415" s="12"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="13"/>
+      <c r="E415" s="13"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="4">
@@ -7364,9 +7389,9 @@
       <c r="B416" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C416" s="12"/>
-      <c r="D416" s="12"/>
-      <c r="E416" s="12"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="13"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="4">
@@ -7375,9 +7400,9 @@
       <c r="B417" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-      <c r="E417" s="12"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="13"/>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="4">
@@ -7386,9 +7411,9 @@
       <c r="B418" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C418" s="12"/>
-      <c r="D418" s="12"/>
-      <c r="E418" s="12"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="13"/>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="4">
@@ -7397,9 +7422,9 @@
       <c r="B419" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C419" s="12"/>
-      <c r="D419" s="12"/>
-      <c r="E419" s="12"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="4">
@@ -7408,9 +7433,9 @@
       <c r="B420" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C420" s="12"/>
-      <c r="D420" s="12"/>
-      <c r="E420" s="12"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="13"/>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="4">
@@ -7419,9 +7444,9 @@
       <c r="B421" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C421" s="12"/>
-      <c r="D421" s="12"/>
-      <c r="E421" s="12"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="13"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="4">
@@ -7430,9 +7455,9 @@
       <c r="B422" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C422" s="12"/>
-      <c r="D422" s="12"/>
-      <c r="E422" s="12"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="4">
@@ -7441,9 +7466,9 @@
       <c r="B423" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C423" s="12"/>
-      <c r="D423" s="12"/>
-      <c r="E423" s="12"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="4">
@@ -7452,9 +7477,9 @@
       <c r="B424" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C424" s="12"/>
-      <c r="D424" s="12"/>
-      <c r="E424" s="12"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="4">
@@ -7463,9 +7488,9 @@
       <c r="B425" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C425" s="12"/>
-      <c r="D425" s="12"/>
-      <c r="E425" s="12"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="4">
@@ -7474,9 +7499,9 @@
       <c r="B426" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C426" s="12"/>
-      <c r="D426" s="12"/>
-      <c r="E426" s="12"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="4">
@@ -7485,8 +7510,8 @@
       <c r="B427" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C427" s="12"/>
-      <c r="D427" s="12"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
       <c r="E427" s="11"/>
     </row>
     <row r="428" spans="1:5">
@@ -7496,9 +7521,9 @@
       <c r="B428" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C428" s="12"/>
+      <c r="C428" s="13"/>
       <c r="D428" s="11"/>
-      <c r="E428" s="12"/>
+      <c r="E428" s="13"/>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="4">
@@ -7507,9 +7532,9 @@
       <c r="B429" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C429" s="12"/>
+      <c r="C429" s="13"/>
       <c r="D429" s="11"/>
-      <c r="E429" s="12"/>
+      <c r="E429" s="13"/>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="4">
@@ -7518,9 +7543,9 @@
       <c r="B430" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C430" s="12"/>
+      <c r="C430" s="13"/>
       <c r="D430" s="11"/>
-      <c r="E430" s="12"/>
+      <c r="E430" s="13"/>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="4">
@@ -7529,9 +7554,9 @@
       <c r="B431" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C431" s="12"/>
-      <c r="D431" s="12"/>
-      <c r="E431" s="12"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="13"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="4">
@@ -7540,9 +7565,9 @@
       <c r="B432" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C432" s="12"/>
-      <c r="D432" s="12"/>
-      <c r="E432" s="12"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="4">
@@ -7551,9 +7576,9 @@
       <c r="B433" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C433" s="12"/>
-      <c r="D433" s="12"/>
-      <c r="E433" s="12"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="4">
@@ -7562,9 +7587,9 @@
       <c r="B434" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C434" s="12"/>
-      <c r="D434" s="12"/>
-      <c r="E434" s="12"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="4">
@@ -7573,9 +7598,9 @@
       <c r="B435" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C435" s="12"/>
-      <c r="D435" s="12"/>
-      <c r="E435" s="12"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="4">
@@ -7584,9 +7609,9 @@
       <c r="B436" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="C436" s="12"/>
-      <c r="D436" s="12"/>
-      <c r="E436" s="12"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="4">
@@ -7595,9 +7620,9 @@
       <c r="B437" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="13"/>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="4">
@@ -7606,9 +7631,9 @@
       <c r="B438" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C438" s="12"/>
-      <c r="D438" s="12"/>
-      <c r="E438" s="12"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="13"/>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="4">
@@ -7617,9 +7642,9 @@
       <c r="B439" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C439" s="12"/>
-      <c r="D439" s="12"/>
-      <c r="E439" s="12"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="13"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="4">
@@ -7628,9 +7653,9 @@
       <c r="B440" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C440" s="12"/>
-      <c r="D440" s="12"/>
-      <c r="E440" s="12"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13"/>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="4">
@@ -7639,9 +7664,9 @@
       <c r="B441" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C441" s="12"/>
-      <c r="D441" s="12"/>
-      <c r="E441" s="12"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="13"/>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="4">
@@ -7650,9 +7675,9 @@
       <c r="B442" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C442" s="12"/>
-      <c r="D442" s="12"/>
-      <c r="E442" s="12"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="13"/>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="4">
@@ -7661,9 +7686,9 @@
       <c r="B443" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C443" s="12"/>
-      <c r="D443" s="12"/>
-      <c r="E443" s="12"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="13"/>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="4">
@@ -7672,9 +7697,9 @@
       <c r="B444" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C444" s="12"/>
-      <c r="D444" s="12"/>
-      <c r="E444" s="12"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="13"/>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="4">
@@ -7683,9 +7708,9 @@
       <c r="B445" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C445" s="12"/>
-      <c r="D445" s="12"/>
-      <c r="E445" s="12"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="13"/>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="4">
@@ -7694,9 +7719,9 @@
       <c r="B446" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C446" s="12"/>
-      <c r="D446" s="12"/>
-      <c r="E446" s="12"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="13"/>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="4">
@@ -7705,9 +7730,9 @@
       <c r="B447" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C447" s="12"/>
-      <c r="D447" s="12"/>
-      <c r="E447" s="12"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="13"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="4">
@@ -7716,9 +7741,9 @@
       <c r="B448" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C448" s="12"/>
-      <c r="D448" s="12"/>
-      <c r="E448" s="12"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="13"/>
+      <c r="E448" s="13"/>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="4">
@@ -7727,9 +7752,9 @@
       <c r="B449" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C449" s="12"/>
-      <c r="D449" s="12"/>
-      <c r="E449" s="12"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="13"/>
+      <c r="E449" s="13"/>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="4">
@@ -7738,9 +7763,9 @@
       <c r="B450" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C450" s="12"/>
-      <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="13"/>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="4">
@@ -7749,9 +7774,9 @@
       <c r="B451" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="13"/>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="4">
@@ -7771,9 +7796,9 @@
       <c r="B453" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C453" s="12"/>
+      <c r="C453" s="13"/>
       <c r="D453" s="11"/>
-      <c r="E453" s="12"/>
+      <c r="E453" s="13"/>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="4">
@@ -7793,9 +7818,9 @@
       <c r="B455" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C455" s="12"/>
+      <c r="C455" s="13"/>
       <c r="D455" s="11"/>
-      <c r="E455" s="12"/>
+      <c r="E455" s="13"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="4">
@@ -7804,9 +7829,9 @@
       <c r="B456" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C456" s="12"/>
-      <c r="D456" s="12"/>
-      <c r="E456" s="12"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="13"/>
+      <c r="E456" s="13"/>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="4">
@@ -7815,9 +7840,9 @@
       <c r="B457" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C457" s="12"/>
-      <c r="D457" s="12"/>
-      <c r="E457" s="12"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="13"/>
+      <c r="E457" s="13"/>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="4">
@@ -7826,9 +7851,9 @@
       <c r="B458" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C458" s="12"/>
-      <c r="D458" s="12"/>
-      <c r="E458" s="12"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="13"/>
+      <c r="E458" s="13"/>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="4">
@@ -7837,9 +7862,9 @@
       <c r="B459" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C459" s="12"/>
-      <c r="D459" s="12"/>
-      <c r="E459" s="12"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="13"/>
+      <c r="E459" s="13"/>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="4">
@@ -7848,9 +7873,9 @@
       <c r="B460" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C460" s="12"/>
-      <c r="D460" s="12"/>
-      <c r="E460" s="12"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="13"/>
+      <c r="E460" s="13"/>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="4">
@@ -7859,9 +7884,9 @@
       <c r="B461" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C461" s="12"/>
-      <c r="D461" s="12"/>
-      <c r="E461" s="12"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="13"/>
+      <c r="E461" s="13"/>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="4">
@@ -7870,9 +7895,9 @@
       <c r="B462" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C462" s="12"/>
-      <c r="D462" s="12"/>
-      <c r="E462" s="12"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="13"/>
+      <c r="E462" s="13"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="4">
@@ -7881,9 +7906,9 @@
       <c r="B463" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C463" s="12"/>
-      <c r="D463" s="12"/>
-      <c r="E463" s="12"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="13"/>
+      <c r="E463" s="13"/>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4">
@@ -7892,9 +7917,9 @@
       <c r="B464" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C464" s="12"/>
-      <c r="D464" s="12"/>
-      <c r="E464" s="12"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="13"/>
+      <c r="E464" s="13"/>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="4">
@@ -7903,9 +7928,9 @@
       <c r="B465" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C465" s="12"/>
-      <c r="D465" s="12"/>
-      <c r="E465" s="12"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="13"/>
+      <c r="E465" s="13"/>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="4">
@@ -7914,9 +7939,9 @@
       <c r="B466" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C466" s="12"/>
-      <c r="D466" s="12"/>
-      <c r="E466" s="12"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="13"/>
+      <c r="E466" s="13"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="4">
@@ -7925,9 +7950,9 @@
       <c r="B467" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C467" s="12"/>
-      <c r="D467" s="12"/>
-      <c r="E467" s="12"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13"/>
+      <c r="E467" s="13"/>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="4">
@@ -7936,9 +7961,9 @@
       <c r="B468" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C468" s="12"/>
-      <c r="D468" s="12"/>
-      <c r="E468" s="12"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="13"/>
+      <c r="E468" s="13"/>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="4">
@@ -7947,9 +7972,9 @@
       <c r="B469" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C469" s="12"/>
-      <c r="D469" s="12"/>
-      <c r="E469" s="12"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="13"/>
+      <c r="E469" s="13"/>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="4">
@@ -7958,9 +7983,9 @@
       <c r="B470" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C470" s="12"/>
-      <c r="D470" s="12"/>
-      <c r="E470" s="12"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="13"/>
+      <c r="E470" s="13"/>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="4">
@@ -7969,9 +7994,9 @@
       <c r="B471" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C471" s="12"/>
-      <c r="D471" s="12"/>
-      <c r="E471" s="12"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="13"/>
+      <c r="E471" s="13"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="4">
@@ -7980,9 +8005,9 @@
       <c r="B472" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C472" s="12"/>
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="13"/>
+      <c r="E472" s="13"/>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="4">
@@ -7991,9 +8016,9 @@
       <c r="B473" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C473" s="12"/>
-      <c r="D473" s="12"/>
-      <c r="E473" s="12"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="13"/>
+      <c r="E473" s="13"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4">
@@ -8002,9 +8027,9 @@
       <c r="B474" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="C474" s="12"/>
-      <c r="D474" s="12"/>
-      <c r="E474" s="12"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="13"/>
+      <c r="E474" s="13"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="4">
@@ -8013,9 +8038,9 @@
       <c r="B475" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="C475" s="12"/>
-      <c r="D475" s="12"/>
-      <c r="E475" s="12"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="13"/>
+      <c r="E475" s="13"/>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="4">
@@ -8024,9 +8049,9 @@
       <c r="B476" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C476" s="12"/>
-      <c r="D476" s="12"/>
-      <c r="E476" s="12"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="13"/>
+      <c r="E476" s="13"/>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="4">
@@ -8046,9 +8071,9 @@
       <c r="B478" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C478" s="12"/>
+      <c r="C478" s="13"/>
       <c r="D478" s="11"/>
-      <c r="E478" s="12"/>
+      <c r="E478" s="13"/>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="4">
@@ -8057,9 +8082,9 @@
       <c r="B479" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C479" s="12"/>
-      <c r="D479" s="12"/>
-      <c r="E479" s="12"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="13"/>
+      <c r="E479" s="13"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="4">
@@ -8068,9 +8093,9 @@
       <c r="B480" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C480" s="12"/>
-      <c r="D480" s="12"/>
-      <c r="E480" s="12"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="13"/>
+      <c r="E480" s="13"/>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="4">
@@ -8079,9 +8104,9 @@
       <c r="B481" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C481" s="12"/>
-      <c r="D481" s="12"/>
-      <c r="E481" s="12"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="13"/>
+      <c r="E481" s="13"/>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="4">
@@ -8090,9 +8115,9 @@
       <c r="B482" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C482" s="12"/>
-      <c r="D482" s="12"/>
-      <c r="E482" s="12"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="13"/>
+      <c r="E482" s="13"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="4">
@@ -8101,9 +8126,9 @@
       <c r="B483" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C483" s="12"/>
-      <c r="D483" s="12"/>
-      <c r="E483" s="12"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="13"/>
+      <c r="E483" s="13"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="4">
@@ -8112,9 +8137,9 @@
       <c r="B484" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C484" s="12"/>
-      <c r="D484" s="12"/>
-      <c r="E484" s="12"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="13"/>
+      <c r="E484" s="13"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4">
@@ -8134,9 +8159,9 @@
       <c r="B486" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C486" s="12"/>
+      <c r="C486" s="13"/>
       <c r="D486" s="11"/>
-      <c r="E486" s="12"/>
+      <c r="E486" s="13"/>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="4">
@@ -8145,9 +8170,9 @@
       <c r="B487" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C487" s="12"/>
-      <c r="D487" s="12"/>
-      <c r="E487" s="12"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="13"/>
+      <c r="E487" s="13"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="4">
@@ -8156,9 +8181,9 @@
       <c r="B488" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C488" s="12"/>
-      <c r="D488" s="12"/>
-      <c r="E488" s="12"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="13"/>
+      <c r="E488" s="13"/>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="4">
@@ -8167,9 +8192,9 @@
       <c r="B489" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C489" s="12"/>
-      <c r="D489" s="12"/>
-      <c r="E489" s="12"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="13"/>
+      <c r="E489" s="13"/>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="4">
@@ -8178,9 +8203,9 @@
       <c r="B490" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C490" s="12"/>
-      <c r="D490" s="12"/>
-      <c r="E490" s="12"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="13"/>
+      <c r="E490" s="13"/>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="4">
@@ -8189,9 +8214,9 @@
       <c r="B491" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C491" s="12"/>
-      <c r="D491" s="12"/>
-      <c r="E491" s="12"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="13"/>
+      <c r="E491" s="13"/>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="4">
@@ -8200,9 +8225,9 @@
       <c r="B492" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C492" s="12"/>
-      <c r="D492" s="12"/>
-      <c r="E492" s="12"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="13"/>
+      <c r="E492" s="13"/>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="4">
@@ -8211,9 +8236,9 @@
       <c r="B493" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C493" s="12"/>
-      <c r="D493" s="12"/>
-      <c r="E493" s="12"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="13"/>
+      <c r="E493" s="13"/>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="4">
@@ -8222,9 +8247,9 @@
       <c r="B494" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C494" s="12"/>
-      <c r="D494" s="12"/>
-      <c r="E494" s="12"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="13"/>
+      <c r="E494" s="13"/>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="4">
@@ -8233,9 +8258,9 @@
       <c r="B495" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C495" s="12"/>
-      <c r="D495" s="12"/>
-      <c r="E495" s="12"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="13"/>
+      <c r="E495" s="13"/>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="4">
@@ -8244,9 +8269,9 @@
       <c r="B496" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C496" s="12"/>
-      <c r="D496" s="12"/>
-      <c r="E496" s="12"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="13"/>
+      <c r="E496" s="13"/>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="4">
@@ -8255,9 +8280,9 @@
       <c r="B497" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C497" s="12"/>
-      <c r="D497" s="12"/>
-      <c r="E497" s="12"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="13"/>
+      <c r="E497" s="13"/>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="4">
@@ -8266,9 +8291,9 @@
       <c r="B498" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C498" s="12"/>
-      <c r="D498" s="12"/>
-      <c r="E498" s="12"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="13"/>
+      <c r="E498" s="13"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="4">
@@ -8277,9 +8302,9 @@
       <c r="B499" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C499" s="12"/>
-      <c r="D499" s="12"/>
-      <c r="E499" s="12"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="13"/>
+      <c r="E499" s="13"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="4">
@@ -8288,9 +8313,9 @@
       <c r="B500" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C500" s="12"/>
-      <c r="D500" s="12"/>
-      <c r="E500" s="12"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="13"/>
+      <c r="E500" s="13"/>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="4">
@@ -8299,9 +8324,9 @@
       <c r="B501" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C501" s="12"/>
-      <c r="D501" s="12"/>
-      <c r="E501" s="12"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="13"/>
+      <c r="E501" s="13"/>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="4">
@@ -8310,9 +8335,9 @@
       <c r="B502" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C502" s="12"/>
-      <c r="D502" s="12"/>
-      <c r="E502" s="12"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="13"/>
+      <c r="E502" s="13"/>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="4">
@@ -8321,9 +8346,9 @@
       <c r="B503" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C503" s="12"/>
-      <c r="D503" s="12"/>
-      <c r="E503" s="12"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="13"/>
+      <c r="E503" s="13"/>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="4">
@@ -8332,9 +8357,9 @@
       <c r="B504" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C504" s="12"/>
-      <c r="D504" s="12"/>
-      <c r="E504" s="12"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="13"/>
+      <c r="E504" s="13"/>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4">
@@ -8343,9 +8368,9 @@
       <c r="B505" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C505" s="12"/>
-      <c r="D505" s="12"/>
-      <c r="E505" s="12"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="13"/>
+      <c r="E505" s="13"/>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="4">
@@ -8354,9 +8379,9 @@
       <c r="B506" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C506" s="12"/>
-      <c r="D506" s="12"/>
-      <c r="E506" s="12"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="13"/>
+      <c r="E506" s="13"/>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="4">
@@ -8365,9 +8390,9 @@
       <c r="B507" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C507" s="12"/>
-      <c r="D507" s="12"/>
-      <c r="E507" s="12"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="13"/>
+      <c r="E507" s="13"/>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="4">
@@ -8376,9 +8401,9 @@
       <c r="B508" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C508" s="12"/>
-      <c r="D508" s="12"/>
-      <c r="E508" s="12"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="13"/>
+      <c r="E508" s="13"/>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="4">
@@ -8387,9 +8412,9 @@
       <c r="B509" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C509" s="12"/>
-      <c r="D509" s="12"/>
-      <c r="E509" s="12"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="13"/>
+      <c r="E509" s="13"/>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="4">
@@ -8398,9 +8423,9 @@
       <c r="B510" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C510" s="12"/>
-      <c r="D510" s="12"/>
-      <c r="E510" s="12"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="13"/>
+      <c r="E510" s="13"/>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="4">
@@ -8409,9 +8434,9 @@
       <c r="B511" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C511" s="12"/>
-      <c r="D511" s="12"/>
-      <c r="E511" s="12"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="13"/>
+      <c r="E511" s="13"/>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="4">
@@ -8420,9 +8445,9 @@
       <c r="B512" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C512" s="12"/>
-      <c r="D512" s="12"/>
-      <c r="E512" s="12"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="13"/>
+      <c r="E512" s="13"/>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="4">
@@ -8431,9 +8456,9 @@
       <c r="B513" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C513" s="12"/>
-      <c r="D513" s="12"/>
-      <c r="E513" s="12"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="13"/>
+      <c r="E513" s="13"/>
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="4">
@@ -8442,9 +8467,9 @@
       <c r="B514" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C514" s="12"/>
-      <c r="D514" s="12"/>
-      <c r="E514" s="12"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="13"/>
+      <c r="E514" s="13"/>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="4">
@@ -8453,9 +8478,9 @@
       <c r="B515" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C515" s="12"/>
-      <c r="D515" s="12"/>
-      <c r="E515" s="12"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="13"/>
+      <c r="E515" s="13"/>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="4">
@@ -8464,9 +8489,9 @@
       <c r="B516" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C516" s="12"/>
-      <c r="D516" s="12"/>
-      <c r="E516" s="12"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="13"/>
+      <c r="E516" s="13"/>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="4">
@@ -8475,9 +8500,9 @@
       <c r="B517" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C517" s="12"/>
-      <c r="D517" s="12"/>
-      <c r="E517" s="12"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="13"/>
+      <c r="E517" s="13"/>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="4">
@@ -8486,9 +8511,9 @@
       <c r="B518" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C518" s="12"/>
-      <c r="D518" s="12"/>
-      <c r="E518" s="12"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="13"/>
+      <c r="E518" s="13"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="4">
@@ -8497,9 +8522,9 @@
       <c r="B519" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C519" s="12"/>
-      <c r="D519" s="12"/>
-      <c r="E519" s="12"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="13"/>
+      <c r="E519" s="13"/>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4">
@@ -8508,9 +8533,9 @@
       <c r="B520" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="C520" s="12"/>
-      <c r="D520" s="12"/>
-      <c r="E520" s="12"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="13"/>
+      <c r="E520" s="13"/>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="4">
@@ -8519,9 +8544,9 @@
       <c r="B521" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C521" s="12"/>
-      <c r="D521" s="12"/>
-      <c r="E521" s="12"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="13"/>
+      <c r="E521" s="13"/>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="4">
@@ -8530,9 +8555,9 @@
       <c r="B522" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C522" s="12"/>
-      <c r="D522" s="12"/>
-      <c r="E522" s="12"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="13"/>
+      <c r="E522" s="13"/>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="4">
@@ -8541,9 +8566,9 @@
       <c r="B523" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C523" s="12"/>
-      <c r="D523" s="12"/>
-      <c r="E523" s="12"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="13"/>
+      <c r="E523" s="13"/>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4">
@@ -8552,9 +8577,9 @@
       <c r="B524" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C524" s="12"/>
-      <c r="D524" s="12"/>
-      <c r="E524" s="12"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="13"/>
+      <c r="E524" s="13"/>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="4">
@@ -8563,9 +8588,9 @@
       <c r="B525" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C525" s="12"/>
-      <c r="D525" s="12"/>
-      <c r="E525" s="12"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="13"/>
+      <c r="E525" s="13"/>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="4">
@@ -8574,9 +8599,9 @@
       <c r="B526" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C526" s="12"/>
-      <c r="D526" s="12"/>
-      <c r="E526" s="12"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="13"/>
+      <c r="E526" s="13"/>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="4">
@@ -8585,9 +8610,9 @@
       <c r="B527" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C527" s="12"/>
-      <c r="D527" s="12"/>
-      <c r="E527" s="12"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="13"/>
+      <c r="E527" s="13"/>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="4">
@@ -8596,9 +8621,9 @@
       <c r="B528" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C528" s="12"/>
-      <c r="D528" s="12"/>
-      <c r="E528" s="12"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="13"/>
+      <c r="E528" s="13"/>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="4">
@@ -8618,9 +8643,9 @@
       <c r="B530" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C530" s="12"/>
+      <c r="C530" s="13"/>
       <c r="D530" s="11"/>
-      <c r="E530" s="12"/>
+      <c r="E530" s="13"/>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="4">
@@ -8629,9 +8654,9 @@
       <c r="B531" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C531" s="12"/>
-      <c r="D531" s="12"/>
-      <c r="E531" s="12"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="13"/>
+      <c r="E531" s="13"/>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4">
@@ -8640,9 +8665,9 @@
       <c r="B532" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C532" s="12"/>
-      <c r="D532" s="12"/>
-      <c r="E532" s="12"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="13"/>
+      <c r="E532" s="13"/>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="4">
@@ -8651,9 +8676,9 @@
       <c r="B533" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="C533" s="12"/>
-      <c r="D533" s="12"/>
-      <c r="E533" s="12"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="13"/>
+      <c r="E533" s="13"/>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="4">
@@ -8662,9 +8687,9 @@
       <c r="B534" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C534" s="12"/>
-      <c r="D534" s="12"/>
-      <c r="E534" s="12"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="13"/>
+      <c r="E534" s="13"/>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4">
@@ -8673,9 +8698,9 @@
       <c r="B535" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C535" s="12"/>
-      <c r="D535" s="12"/>
-      <c r="E535" s="12"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="13"/>
+      <c r="E535" s="13"/>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="4">
@@ -8684,9 +8709,9 @@
       <c r="B536" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C536" s="12"/>
-      <c r="D536" s="12"/>
-      <c r="E536" s="12"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="13"/>
+      <c r="E536" s="13"/>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="4">
@@ -8695,9 +8720,9 @@
       <c r="B537" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="C537" s="12"/>
-      <c r="D537" s="12"/>
-      <c r="E537" s="12"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="13"/>
+      <c r="E537" s="13"/>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="4">
@@ -8706,20 +8731,20 @@
       <c r="B538" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C538" s="12"/>
-      <c r="D538" s="12"/>
-      <c r="E538" s="12"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="13"/>
+      <c r="E538" s="13"/>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4">
         <v>538</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C539" s="12"/>
-      <c r="D539" s="12"/>
-      <c r="E539" s="12"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="13"/>
+      <c r="E539" s="13"/>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4">
@@ -8728,9 +8753,9 @@
       <c r="B540" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C540" s="12"/>
-      <c r="D540" s="12"/>
-      <c r="E540" s="12"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="13"/>
+      <c r="E540" s="13"/>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="4">
@@ -8739,9 +8764,9 @@
       <c r="B541" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C541" s="12"/>
-      <c r="D541" s="12"/>
-      <c r="E541" s="12"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="13"/>
+      <c r="E541" s="13"/>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="4">
@@ -8750,9 +8775,9 @@
       <c r="B542" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C542" s="12"/>
-      <c r="D542" s="12"/>
-      <c r="E542" s="12"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="13"/>
+      <c r="E542" s="13"/>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="4">
@@ -8761,9 +8786,9 @@
       <c r="B543" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C543" s="12"/>
-      <c r="D543" s="12"/>
-      <c r="E543" s="12"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="13"/>
+      <c r="E543" s="13"/>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4">
@@ -8772,9 +8797,9 @@
       <c r="B544" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C544" s="12"/>
-      <c r="D544" s="12"/>
-      <c r="E544" s="12"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="13"/>
+      <c r="E544" s="13"/>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="4">
@@ -8783,9 +8808,9 @@
       <c r="B545" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C545" s="12"/>
-      <c r="D545" s="12"/>
-      <c r="E545" s="12"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="13"/>
+      <c r="E545" s="13"/>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="4">
@@ -8794,9 +8819,9 @@
       <c r="B546" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C546" s="12"/>
-      <c r="D546" s="12"/>
-      <c r="E546" s="12"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="13"/>
+      <c r="E546" s="13"/>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="4">
@@ -8805,9 +8830,9 @@
       <c r="B547" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C547" s="12"/>
-      <c r="D547" s="12"/>
-      <c r="E547" s="12"/>
+      <c r="C547" s="13"/>
+      <c r="D547" s="13"/>
+      <c r="E547" s="13"/>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="4">
@@ -8816,9 +8841,9 @@
       <c r="B548" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C548" s="12"/>
-      <c r="D548" s="12"/>
-      <c r="E548" s="12"/>
+      <c r="C548" s="13"/>
+      <c r="D548" s="13"/>
+      <c r="E548" s="13"/>
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="4">
@@ -8827,9 +8852,9 @@
       <c r="B549" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C549" s="12"/>
-      <c r="D549" s="12"/>
-      <c r="E549" s="12"/>
+      <c r="C549" s="13"/>
+      <c r="D549" s="13"/>
+      <c r="E549" s="13"/>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="4">
@@ -8838,9 +8863,9 @@
       <c r="B550" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C550" s="12"/>
-      <c r="D550" s="12"/>
-      <c r="E550" s="12"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="13"/>
+      <c r="E550" s="13"/>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="4">
@@ -8849,9 +8874,9 @@
       <c r="B551" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C551" s="12"/>
-      <c r="D551" s="12"/>
-      <c r="E551" s="12"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="13"/>
+      <c r="E551" s="13"/>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4">
@@ -8860,9 +8885,9 @@
       <c r="B552" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C552" s="12"/>
-      <c r="D552" s="12"/>
-      <c r="E552" s="12"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="13"/>
+      <c r="E552" s="13"/>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="4">
@@ -8871,9 +8896,9 @@
       <c r="B553" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C553" s="12"/>
-      <c r="D553" s="12"/>
-      <c r="E553" s="12"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="13"/>
+      <c r="E553" s="13"/>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="4">
@@ -8882,9 +8907,9 @@
       <c r="B554" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C554" s="12"/>
-      <c r="D554" s="12"/>
-      <c r="E554" s="12"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="13"/>
+      <c r="E554" s="13"/>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="4">
@@ -8893,9 +8918,9 @@
       <c r="B555" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C555" s="12"/>
-      <c r="D555" s="12"/>
-      <c r="E555" s="12"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="13"/>
+      <c r="E555" s="13"/>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="4">
@@ -8904,9 +8929,9 @@
       <c r="B556" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C556" s="12"/>
-      <c r="D556" s="12"/>
-      <c r="E556" s="12"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="13"/>
+      <c r="E556" s="13"/>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="4">
@@ -8915,9 +8940,9 @@
       <c r="B557" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C557" s="12"/>
-      <c r="D557" s="12"/>
-      <c r="E557" s="12"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="13"/>
+      <c r="E557" s="13"/>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="4">
@@ -8926,9 +8951,9 @@
       <c r="B558" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C558" s="12"/>
-      <c r="D558" s="12"/>
-      <c r="E558" s="12"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="13"/>
+      <c r="E558" s="13"/>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="4">
@@ -8937,9 +8962,9 @@
       <c r="B559" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C559" s="12"/>
-      <c r="D559" s="12"/>
-      <c r="E559" s="12"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="13"/>
+      <c r="E559" s="13"/>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="4">
@@ -8948,9 +8973,9 @@
       <c r="B560" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C560" s="12"/>
-      <c r="D560" s="12"/>
-      <c r="E560" s="12"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="13"/>
+      <c r="E560" s="13"/>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="4">
@@ -8959,9 +8984,9 @@
       <c r="B561" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C561" s="12"/>
-      <c r="D561" s="12"/>
-      <c r="E561" s="12"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="13"/>
+      <c r="E561" s="13"/>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="4">
@@ -8970,9 +8995,9 @@
       <c r="B562" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C562" s="12"/>
-      <c r="D562" s="12"/>
-      <c r="E562" s="12"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="13"/>
+      <c r="E562" s="13"/>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="4">
@@ -8981,9 +9006,9 @@
       <c r="B563" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C563" s="12"/>
-      <c r="D563" s="12"/>
-      <c r="E563" s="12"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="13"/>
+      <c r="E563" s="13"/>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="4">
@@ -8992,9 +9017,9 @@
       <c r="B564" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C564" s="12"/>
-      <c r="D564" s="12"/>
-      <c r="E564" s="12"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="13"/>
+      <c r="E564" s="13"/>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="4">
@@ -9003,9 +9028,9 @@
       <c r="B565" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C565" s="12"/>
-      <c r="D565" s="12"/>
-      <c r="E565" s="12"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="13"/>
+      <c r="E565" s="13"/>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="4">
@@ -9014,9 +9039,9 @@
       <c r="B566" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C566" s="12"/>
-      <c r="D566" s="12"/>
-      <c r="E566" s="12"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="13"/>
+      <c r="E566" s="13"/>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="4">
@@ -9025,9 +9050,9 @@
       <c r="B567" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C567" s="12"/>
-      <c r="D567" s="12"/>
-      <c r="E567" s="12"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="13"/>
+      <c r="E567" s="13"/>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4">
@@ -9036,9 +9061,9 @@
       <c r="B568" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C568" s="12"/>
-      <c r="D568" s="12"/>
-      <c r="E568" s="12"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="13"/>
+      <c r="E568" s="13"/>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="4">
@@ -9047,9 +9072,9 @@
       <c r="B569" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C569" s="12"/>
-      <c r="D569" s="12"/>
-      <c r="E569" s="12"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="13"/>
+      <c r="E569" s="13"/>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="4">
@@ -9058,9 +9083,9 @@
       <c r="B570" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C570" s="12"/>
-      <c r="D570" s="12"/>
-      <c r="E570" s="12"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="13"/>
+      <c r="E570" s="13"/>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="4">
@@ -9069,9 +9094,9 @@
       <c r="B571" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="C571" s="12"/>
-      <c r="D571" s="12"/>
-      <c r="E571" s="12"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="13"/>
+      <c r="E571" s="13"/>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="4">
@@ -9080,9 +9105,9 @@
       <c r="B572" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C572" s="12"/>
-      <c r="D572" s="12"/>
-      <c r="E572" s="12"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="13"/>
+      <c r="E572" s="13"/>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="4">
@@ -9091,9 +9116,9 @@
       <c r="B573" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C573" s="12"/>
-      <c r="D573" s="12"/>
-      <c r="E573" s="12"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="13"/>
+      <c r="E573" s="13"/>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="4">
@@ -9102,9 +9127,9 @@
       <c r="B574" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C574" s="12"/>
-      <c r="D574" s="12"/>
-      <c r="E574" s="12"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="13"/>
+      <c r="E574" s="13"/>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="4">
@@ -9113,9 +9138,9 @@
       <c r="B575" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C575" s="12"/>
-      <c r="D575" s="12"/>
-      <c r="E575" s="12"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="13"/>
+      <c r="E575" s="13"/>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="4">
@@ -9124,9 +9149,9 @@
       <c r="B576" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C576" s="12"/>
-      <c r="D576" s="12"/>
-      <c r="E576" s="12"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="13"/>
+      <c r="E576" s="13"/>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4">
@@ -9135,9 +9160,9 @@
       <c r="B577" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C577" s="12"/>
-      <c r="D577" s="12"/>
-      <c r="E577" s="12"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="13"/>
+      <c r="E577" s="13"/>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="4">
@@ -9146,9 +9171,9 @@
       <c r="B578" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C578" s="12"/>
-      <c r="D578" s="12"/>
-      <c r="E578" s="12"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="13"/>
+      <c r="E578" s="13"/>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="4">
@@ -9157,9 +9182,9 @@
       <c r="B579" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C579" s="12"/>
-      <c r="D579" s="12"/>
-      <c r="E579" s="12"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="13"/>
+      <c r="E579" s="13"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="4">
@@ -9168,9 +9193,9 @@
       <c r="B580" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C580" s="12"/>
-      <c r="D580" s="12"/>
-      <c r="E580" s="12"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="13"/>
+      <c r="E580" s="13"/>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="4">
@@ -9179,9 +9204,9 @@
       <c r="B581" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C581" s="12"/>
-      <c r="D581" s="12"/>
-      <c r="E581" s="12"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="13"/>
+      <c r="E581" s="13"/>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="4">
@@ -9190,9 +9215,9 @@
       <c r="B582" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C582" s="12"/>
-      <c r="D582" s="12"/>
-      <c r="E582" s="12"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="13"/>
+      <c r="E582" s="13"/>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="4">
@@ -9201,9 +9226,9 @@
       <c r="B583" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C583" s="12"/>
-      <c r="D583" s="12"/>
-      <c r="E583" s="12"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="13"/>
+      <c r="E583" s="13"/>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="4">
@@ -9212,20 +9237,195 @@
       <c r="B584" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C584" s="12"/>
-      <c r="D584" s="12"/>
-      <c r="E584" s="12"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="13"/>
+      <c r="E584" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E584">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.8" style="12"/>
+    <col min="2" max="2" width="32.6" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.7" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.9" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="8.8" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -9236,11 +9436,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="7"/>
-    <col min="2" max="2" width="27" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.7" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.8" style="8"/>
+    <col min="1" max="1" width="8.8" style="7" collapsed="1"/>
+    <col min="2" max="2" width="27" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.8" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -9300,13 +9500,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E584"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B584"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -9336,7 +9536,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -10340,7 +10540,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" t="s">
@@ -10417,7 +10617,7 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" t="s">
@@ -12092,7 +12292,7 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" t="s">
@@ -12475,7 +12675,7 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" t="s">
@@ -14031,7 +14231,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D280" s="6"/>
       <c r="E280" t="s">
@@ -14516,7 +14716,7 @@
         <v>309</v>
       </c>
       <c r="C309" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" t="s">
@@ -16072,7 +16272,7 @@
         <v>399</v>
       </c>
       <c r="C401" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D401" s="6"/>
       <c r="E401" t="s">
@@ -16948,7 +17148,7 @@
         <v>450</v>
       </c>
       <c r="C453" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D453" s="6"/>
       <c r="E453" t="s">
@@ -16974,7 +17174,7 @@
         <v>451</v>
       </c>
       <c r="C455" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D455" s="6"/>
       <c r="E455" t="s">
@@ -17357,7 +17557,7 @@
         <v>474</v>
       </c>
       <c r="C478" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D478" s="6"/>
       <c r="E478" t="s">
@@ -17485,7 +17685,7 @@
         <v>478</v>
       </c>
       <c r="C486" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D486" s="6"/>
       <c r="E486" t="s">
@@ -18225,7 +18425,7 @@
         <v>521</v>
       </c>
       <c r="C530" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" t="s">
@@ -18372,7 +18572,7 @@
       <c r="A539" s="4">
         <v>538</v>
       </c>
-      <c r="B539" s="14" t="s">
+      <c r="B539" s="15" t="s">
         <v>530</v>
       </c>
       <c r="C539" t="s">
